--- a/hw/rev2/FlightComputer-rev2-BOM.xlsx
+++ b/hw/rev2/FlightComputer-rev2-BOM.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\hw\rev2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\hw\rev2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BBC7A2-88DF-47CA-ABA1-9635E9210C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93E9A1D-9821-4138-B848-B89987F87A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FlightComputer-rev2-BOM" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FlightComputer-rev2-BOM'!$B$1:$L$482</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$B$2:$K$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3087" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3925" uniqueCount="831">
   <si>
     <t>Qty</t>
   </si>
@@ -2293,7 +2295,323 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>C1608</t>
+    <t>Parts</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS61235P</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS61235PRWLR</t>
+  </si>
+  <si>
+    <t>TPS22917DBV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS22917DBVT</t>
+  </si>
+  <si>
+    <t>TPS65186</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS65186RGZR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBLC6-2SC6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XC6220B331MR-G </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>XC6220B331MR-G</t>
+  </si>
+  <si>
+    <t>STMPS2151STR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32H745IIT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32H745IIT6</t>
+  </si>
+  <si>
+    <t>RB531SM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB531SM-30FHT2R</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C25, C26</t>
+  </si>
+  <si>
+    <t>C1, C100, C1005, C1006, C1007, C1017, C1018, C1019, C102, C103, C104, C105, C106, C107, C108, C109, C111, C112, C113, C114, C115, C116, C117, C118, C119, C16, C19, C2, C3, C41, C42, C43, C44, C45, C46, C47, C48, C49, C50, C51, C57, C70, C76, C80, C81, C85, C86, C87, C88, C89, C94, C98</t>
+  </si>
+  <si>
+    <t>C101, C120, C121, C123, C17, C18, C20, C21, C22, C35, C61, C65, C82, C96, C52, C56, C58, C71, C79, C8, C9</t>
+  </si>
+  <si>
+    <t>C29, C30</t>
+  </si>
+  <si>
+    <t>C23, C24, C31, C32, C33, C34, C36, C37, C38, C39</t>
+  </si>
+  <si>
+    <t>C62, C67, C68</t>
+  </si>
+  <si>
+    <t>C1001, C1002, C110, C14, C15, C4, C5</t>
+  </si>
+  <si>
+    <t>C91, C92, C93</t>
+  </si>
+  <si>
+    <t>J4, J1001, J1002, J1003, J1004, J1005, J1006, J1007, J1008, J1009, J1010, J1011, J1012, J1013, J1014</t>
+  </si>
+  <si>
+    <t>D14, D15, D9, D8, D13</t>
+  </si>
+  <si>
+    <t>D7, D10, D11, D12</t>
+  </si>
+  <si>
+    <t>25v</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMF105B7103MVHF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMK105B7104KVHF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMF105B7104MVHF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMK105B7474KVHF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0402C101J5GAC7411</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VJ0402A180KXQCW1BC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMR105CD7105MV-F</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2uF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMK105AC6225KV-F</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1005X5R1V225K050BE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMK105B7221KVHFE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRM188R61A226ME15D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMK107BBJ475MA-T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMK105BC6475MV-F</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC7SB3157P6X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0402C479C5HACTU</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMK107BBJ475MA-T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25v 4.7u</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10v 4.7u</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01uF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 이용</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMF105B7103MVHF 사용</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 확인 or 22/4.7u로 대체</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>863-BAT54XV2T1G</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>571-1981568-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlightComputer_Library:AXT334124</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>769-AXT334124</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_Taiyo-Yuden_MD-3030</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>963-NR4012T2R2M</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>81-LQH44PN4R7MP0L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlightComputer_Library:SW-TACT-436351045816</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>패키지 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS61235PRWLR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT1945EMS#PBF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM358BIDR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>512-NC7SB3157P6X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS22917DBVT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 없음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAM8301</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>621-PAM8301AAF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32H745IIT6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBLC6-2SC6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS65186RGZT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX809TTRG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCP73871T-1AAI/ML</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XC6220B331MR-G </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>815ASE24.000MHZET</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>815M3BAIG251ZT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT25QL512ABB8ESF-0AAT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT48LC16M16A2P-6A:G</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlightComputer_Library:SRP1038C-1R0M</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRP1038C-1R0M</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>963-NR3012T220M / IFSC1111AZER220M01</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2301,7 +2619,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2462,7 +2780,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2640,6 +2958,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2887,8 +3223,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3248,18 +3599,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="I353" sqref="I353"/>
+    <sheetView topLeftCell="A350" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I387" sqref="I387"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="7.875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="7.875" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="26.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.25" customWidth="1"/>
     <col min="9" max="9" width="16.375" customWidth="1"/>
     <col min="10" max="10" width="29.875" customWidth="1"/>
@@ -3267,7 +3618,7 @@
     <col min="12" max="12" width="80" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12">
       <c r="B1" t="s">
         <v>684</v>
       </c>
@@ -3287,7 +3638,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>681</v>
+        <v>747</v>
       </c>
       <c r="I1" t="s">
         <v>682</v>
@@ -3302,7 +3653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12">
       <c r="C2" t="s">
         <v>42</v>
       </c>
@@ -3322,7 +3673,7 @@
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -3334,7 +3685,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -3354,7 +3705,7 @@
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -3366,7 +3717,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12">
       <c r="C4" t="s">
         <v>40</v>
       </c>
@@ -3386,7 +3737,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
@@ -3398,7 +3749,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12">
       <c r="C5" t="s">
         <v>41</v>
       </c>
@@ -3418,7 +3769,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="J5" t="s">
         <v>8</v>
@@ -3430,7 +3781,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -3462,7 +3813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12">
       <c r="C7" t="s">
         <v>126</v>
       </c>
@@ -3494,7 +3845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12">
       <c r="C8" t="s">
         <v>589</v>
       </c>
@@ -3526,7 +3877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12">
       <c r="C9" t="s">
         <v>590</v>
       </c>
@@ -3558,7 +3909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12">
       <c r="C10" t="s">
         <v>591</v>
       </c>
@@ -3590,7 +3941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12">
       <c r="C11" t="s">
         <v>603</v>
       </c>
@@ -3622,7 +3973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="C12" t="s">
         <v>604</v>
       </c>
@@ -3654,7 +4005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12">
       <c r="C13" t="s">
         <v>685</v>
       </c>
@@ -3686,7 +4037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12">
       <c r="C14" t="s">
         <v>128</v>
       </c>
@@ -3718,7 +4069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12">
       <c r="C15" t="s">
         <v>129</v>
       </c>
@@ -3750,7 +4101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12">
       <c r="C16" t="s">
         <v>130</v>
       </c>
@@ -3782,7 +4133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12">
       <c r="C17" t="s">
         <v>131</v>
       </c>
@@ -3814,7 +4165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12">
       <c r="C18" t="s">
         <v>132</v>
       </c>
@@ -3846,7 +4197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -3878,7 +4229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12">
       <c r="C20" t="s">
         <v>134</v>
       </c>
@@ -3910,7 +4261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12">
       <c r="C21" t="s">
         <v>135</v>
       </c>
@@ -3942,7 +4293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12">
       <c r="C22" t="s">
         <v>137</v>
       </c>
@@ -3974,7 +4325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12">
       <c r="C23" t="s">
         <v>138</v>
       </c>
@@ -4006,7 +4357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12">
       <c r="C24" t="s">
         <v>139</v>
       </c>
@@ -4038,7 +4389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12">
       <c r="C25" t="s">
         <v>140</v>
       </c>
@@ -4070,7 +4421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12">
       <c r="C26" t="s">
         <v>141</v>
       </c>
@@ -4102,7 +4453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -4134,7 +4485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12">
       <c r="C28" t="s">
         <v>143</v>
       </c>
@@ -4166,7 +4517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12">
       <c r="C29" t="s">
         <v>144</v>
       </c>
@@ -4198,7 +4549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12">
       <c r="C30" t="s">
         <v>145</v>
       </c>
@@ -4230,7 +4581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12">
       <c r="C31" t="s">
         <v>30</v>
       </c>
@@ -4262,7 +4613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12">
       <c r="C32" t="s">
         <v>34</v>
       </c>
@@ -4294,7 +4645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -4326,7 +4677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -4358,7 +4709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12">
       <c r="C35" t="s">
         <v>59</v>
       </c>
@@ -4390,7 +4741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12">
       <c r="C36" t="s">
         <v>60</v>
       </c>
@@ -4422,7 +4773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12">
       <c r="C37" t="s">
         <v>61</v>
       </c>
@@ -4454,7 +4805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12">
       <c r="C38" t="s">
         <v>62</v>
       </c>
@@ -4486,7 +4837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12">
       <c r="C39" t="s">
         <v>63</v>
       </c>
@@ -4518,7 +4869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12">
       <c r="C40" t="s">
         <v>64</v>
       </c>
@@ -4550,7 +4901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12">
       <c r="C41" t="s">
         <v>65</v>
       </c>
@@ -4582,7 +4933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12">
       <c r="C42" t="s">
         <v>66</v>
       </c>
@@ -4614,7 +4965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12">
       <c r="C43" t="s">
         <v>67</v>
       </c>
@@ -4646,7 +4997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12">
       <c r="C44" t="s">
         <v>68</v>
       </c>
@@ -4678,7 +5029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12">
       <c r="C45" t="s">
         <v>69</v>
       </c>
@@ -4710,7 +5061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12">
       <c r="C46" t="s">
         <v>76</v>
       </c>
@@ -4742,7 +5093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12">
       <c r="C47" t="s">
         <v>93</v>
       </c>
@@ -4774,7 +5125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12">
       <c r="C48" t="s">
         <v>100</v>
       </c>
@@ -4806,7 +5157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12">
       <c r="C49" t="s">
         <v>105</v>
       </c>
@@ -4838,7 +5189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12">
       <c r="C50" t="s">
         <v>106</v>
       </c>
@@ -4870,7 +5221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12">
       <c r="C51" t="s">
         <v>111</v>
       </c>
@@ -4902,7 +5253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12">
       <c r="C52" t="s">
         <v>112</v>
       </c>
@@ -4934,7 +5285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12">
       <c r="C53" t="s">
         <v>113</v>
       </c>
@@ -4966,7 +5317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12">
       <c r="C54" t="s">
         <v>114</v>
       </c>
@@ -4998,7 +5349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12">
       <c r="C55" t="s">
         <v>115</v>
       </c>
@@ -5030,7 +5381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12">
       <c r="C56" t="s">
         <v>120</v>
       </c>
@@ -5062,7 +5413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12">
       <c r="C57" t="s">
         <v>124</v>
       </c>
@@ -5094,7 +5445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12">
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -5123,7 +5474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12">
       <c r="C59" t="s">
         <v>422</v>
       </c>
@@ -5152,7 +5503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12">
       <c r="C60" t="s">
         <v>423</v>
       </c>
@@ -5181,7 +5532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12">
       <c r="C61" t="s">
         <v>425</v>
       </c>
@@ -5210,7 +5561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12">
       <c r="C62" t="s">
         <v>426</v>
       </c>
@@ -5239,7 +5590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12">
       <c r="C63" t="s">
         <v>427</v>
       </c>
@@ -5268,7 +5619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12">
       <c r="C64" t="s">
         <v>429</v>
       </c>
@@ -5297,7 +5648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12">
       <c r="C65" t="s">
         <v>438</v>
       </c>
@@ -5326,7 +5677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -5355,7 +5706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12">
       <c r="C67" t="s">
         <v>455</v>
       </c>
@@ -5384,7 +5735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:12">
       <c r="C68" t="s">
         <v>456</v>
       </c>
@@ -5413,7 +5764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:12">
       <c r="C69" t="s">
         <v>457</v>
       </c>
@@ -5442,7 +5793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:12">
       <c r="C70" t="s">
         <v>458</v>
       </c>
@@ -5471,7 +5822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:12">
       <c r="C71" t="s">
         <v>463</v>
       </c>
@@ -5500,7 +5851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:12">
       <c r="C72" t="s">
         <v>464</v>
       </c>
@@ -5529,7 +5880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:12">
       <c r="C73" t="s">
         <v>465</v>
       </c>
@@ -5558,7 +5909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:12">
       <c r="C74" t="s">
         <v>466</v>
       </c>
@@ -5587,7 +5938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:12">
       <c r="C75" t="s">
         <v>474</v>
       </c>
@@ -5616,7 +5967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:12">
       <c r="C76" t="s">
         <v>475</v>
       </c>
@@ -5645,7 +5996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:12">
       <c r="C77" t="s">
         <v>476</v>
       </c>
@@ -5674,7 +6025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:12">
       <c r="C78" t="s">
         <v>266</v>
       </c>
@@ -5703,7 +6054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:12">
       <c r="C79" t="s">
         <v>643</v>
       </c>
@@ -5732,7 +6083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:12">
       <c r="C80" t="s">
         <v>644</v>
       </c>
@@ -5761,7 +6112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12">
       <c r="C81" t="s">
         <v>646</v>
       </c>
@@ -5790,7 +6141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12">
       <c r="C82" t="s">
         <v>647</v>
       </c>
@@ -5819,7 +6170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12">
       <c r="C83" t="s">
         <v>648</v>
       </c>
@@ -5848,7 +6199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12">
       <c r="C84" t="s">
         <v>408</v>
       </c>
@@ -5877,7 +6228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12">
       <c r="C85" t="s">
         <v>413</v>
       </c>
@@ -5906,7 +6257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12">
       <c r="C86" t="s">
         <v>417</v>
       </c>
@@ -5935,7 +6286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12">
       <c r="C87" t="s">
         <v>421</v>
       </c>
@@ -5964,7 +6315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12">
       <c r="C88" t="s">
         <v>428</v>
       </c>
@@ -5993,7 +6344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12">
       <c r="C89" t="s">
         <v>434</v>
       </c>
@@ -6022,7 +6373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12">
       <c r="C90" t="s">
         <v>487</v>
       </c>
@@ -6051,7 +6402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12">
       <c r="C91" t="s">
         <v>489</v>
       </c>
@@ -6080,7 +6431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12">
       <c r="C92" t="s">
         <v>494</v>
       </c>
@@ -6109,7 +6460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12">
       <c r="C93" t="s">
         <v>665</v>
       </c>
@@ -6138,7 +6489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12">
       <c r="C94" t="s">
         <v>596</v>
       </c>
@@ -6167,7 +6518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12">
       <c r="C95" t="s">
         <v>598</v>
       </c>
@@ -6196,7 +6547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12">
       <c r="C96" t="s">
         <v>84</v>
       </c>
@@ -6225,7 +6576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12">
       <c r="C97" t="s">
         <v>98</v>
       </c>
@@ -6254,7 +6605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12">
       <c r="C98" t="s">
         <v>660</v>
       </c>
@@ -6283,7 +6634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12">
       <c r="C99" t="s">
         <v>301</v>
       </c>
@@ -6312,7 +6663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12">
       <c r="C100" t="s">
         <v>485</v>
       </c>
@@ -6341,7 +6692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12">
       <c r="C101" t="s">
         <v>490</v>
       </c>
@@ -6370,7 +6721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12">
       <c r="C102" t="s">
         <v>491</v>
       </c>
@@ -6399,7 +6750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:12">
       <c r="C103" t="s">
         <v>492</v>
       </c>
@@ -6428,7 +6779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:12">
       <c r="C104" t="s">
         <v>493</v>
       </c>
@@ -6457,7 +6808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:12">
       <c r="C105" t="s">
         <v>497</v>
       </c>
@@ -6486,7 +6837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:12">
       <c r="C106" t="s">
         <v>330</v>
       </c>
@@ -6515,7 +6866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:12">
       <c r="C107" t="s">
         <v>331</v>
       </c>
@@ -6544,7 +6895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:12">
       <c r="C108" t="s">
         <v>340</v>
       </c>
@@ -6573,7 +6924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:12">
       <c r="C109" t="s">
         <v>102</v>
       </c>
@@ -6602,7 +6953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:12">
       <c r="C110" t="s">
         <v>127</v>
       </c>
@@ -6631,7 +6982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:12">
       <c r="C111" t="s">
         <v>146</v>
       </c>
@@ -6660,7 +7011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:12">
       <c r="C112" t="s">
         <v>147</v>
       </c>
@@ -6689,7 +7040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:12">
       <c r="C113" t="s">
         <v>150</v>
       </c>
@@ -6718,7 +7069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:12">
       <c r="C114" t="s">
         <v>31</v>
       </c>
@@ -6747,7 +7098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:12">
       <c r="C115" t="s">
         <v>33</v>
       </c>
@@ -6776,7 +7127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:12">
       <c r="C116" t="s">
         <v>35</v>
       </c>
@@ -6805,7 +7156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:12">
       <c r="C117" t="s">
         <v>36</v>
       </c>
@@ -6834,7 +7185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:12">
       <c r="C118" t="s">
         <v>37</v>
       </c>
@@ -6863,7 +7214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:12">
       <c r="C119" t="s">
         <v>52</v>
       </c>
@@ -6892,7 +7243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:12">
       <c r="C120" t="s">
         <v>80</v>
       </c>
@@ -6921,7 +7272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:12">
       <c r="C121" t="s">
         <v>87</v>
       </c>
@@ -6950,7 +7301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:12">
       <c r="C122" t="s">
         <v>107</v>
       </c>
@@ -6979,7 +7330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:12">
       <c r="C123" t="s">
         <v>122</v>
       </c>
@@ -7008,7 +7359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:12">
       <c r="C124" t="s">
         <v>70</v>
       </c>
@@ -7037,7 +7388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:12">
       <c r="C125" t="s">
         <v>75</v>
       </c>
@@ -7066,7 +7417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:12">
       <c r="C126" t="s">
         <v>77</v>
       </c>
@@ -7095,7 +7446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:12">
       <c r="C127" t="s">
         <v>94</v>
       </c>
@@ -7124,7 +7475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:12">
       <c r="C128" t="s">
         <v>104</v>
       </c>
@@ -7153,7 +7504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:12">
       <c r="C129" t="s">
         <v>19</v>
       </c>
@@ -7182,7 +7533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:12">
       <c r="C130" t="s">
         <v>23</v>
       </c>
@@ -7196,7 +7547,7 @@
       </c>
       <c r="F130" t="str">
         <f t="shared" ref="F130:F193" si="8">IF(OR(G130&lt;&gt;G131,H130&lt;&gt;H131),"Last","")</f>
-        <v/>
+        <v>Last</v>
       </c>
       <c r="G130" t="s">
         <v>20</v>
@@ -7211,17 +7562,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:12">
       <c r="C131" t="s">
         <v>595</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="6"/>
-        <v>C101, C120, C121, C123, C17, C18, C20, C21, C22, C35, C61, C65, C82, C96, C52, C56, C58, C71, C79, C8, C9, C1010</v>
+        <v>C1010</v>
       </c>
       <c r="E131">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" si="8"/>
@@ -7230,6 +7581,9 @@
       <c r="G131" t="s">
         <v>20</v>
       </c>
+      <c r="H131" t="s">
+        <v>762</v>
+      </c>
       <c r="J131" t="s">
         <v>21</v>
       </c>
@@ -7240,7 +7594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:12">
       <c r="C132" t="s">
         <v>661</v>
       </c>
@@ -7269,7 +7623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:12">
       <c r="C133" t="s">
         <v>651</v>
       </c>
@@ -7298,7 +7652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:12">
       <c r="C134" t="s">
         <v>418</v>
       </c>
@@ -7327,7 +7681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:12">
       <c r="C135" t="s">
         <v>108</v>
       </c>
@@ -7356,7 +7710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:12">
       <c r="C136" t="s">
         <v>110</v>
       </c>
@@ -7385,7 +7739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:12">
       <c r="C137" t="s">
         <v>415</v>
       </c>
@@ -7414,7 +7768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:12">
       <c r="C138" t="s">
         <v>416</v>
       </c>
@@ -7443,7 +7797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:12">
       <c r="C139" t="s">
         <v>430</v>
       </c>
@@ -7472,7 +7826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:12">
       <c r="C140" t="s">
         <v>431</v>
       </c>
@@ -7501,7 +7855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:12">
       <c r="C141" t="s">
         <v>432</v>
       </c>
@@ -7530,7 +7884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:12">
       <c r="C142" t="s">
         <v>437</v>
       </c>
@@ -7559,7 +7913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:12">
       <c r="C143" t="s">
         <v>471</v>
       </c>
@@ -7588,7 +7942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:12">
       <c r="C144" t="s">
         <v>488</v>
       </c>
@@ -7617,7 +7971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:12">
       <c r="C145" t="s">
         <v>508</v>
       </c>
@@ -7646,7 +8000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:12">
       <c r="C146" t="s">
         <v>321</v>
       </c>
@@ -7675,7 +8029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:12">
       <c r="C147" t="s">
         <v>323</v>
       </c>
@@ -7704,7 +8058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:12">
       <c r="C148" t="s">
         <v>324</v>
       </c>
@@ -7733,7 +8087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:12">
       <c r="C149" t="s">
         <v>325</v>
       </c>
@@ -7762,7 +8116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:12">
       <c r="C150" t="s">
         <v>412</v>
       </c>
@@ -7791,7 +8145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:12">
       <c r="C151" t="s">
         <v>439</v>
       </c>
@@ -7820,7 +8174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:12">
       <c r="C152" t="s">
         <v>460</v>
       </c>
@@ -7849,7 +8203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:12">
       <c r="C153" t="s">
         <v>461</v>
       </c>
@@ -7878,7 +8232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:12">
       <c r="C154" t="s">
         <v>307</v>
       </c>
@@ -7907,7 +8261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:12">
       <c r="C155" t="s">
         <v>311</v>
       </c>
@@ -7936,7 +8290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:12">
       <c r="C156" t="s">
         <v>605</v>
       </c>
@@ -7965,7 +8319,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="157" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:12">
       <c r="C157" t="s">
         <v>609</v>
       </c>
@@ -7994,7 +8348,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="158" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:12">
       <c r="C158" t="s">
         <v>610</v>
       </c>
@@ -8023,7 +8377,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="159" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:12">
       <c r="C159" t="s">
         <v>611</v>
       </c>
@@ -8052,7 +8406,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="160" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:12">
       <c r="C160" t="s">
         <v>612</v>
       </c>
@@ -8081,7 +8435,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="161" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:12">
       <c r="C161" t="s">
         <v>613</v>
       </c>
@@ -8110,7 +8464,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="162" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:12">
       <c r="C162" t="s">
         <v>587</v>
       </c>
@@ -8139,7 +8493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:12">
       <c r="C163" t="s">
         <v>588</v>
       </c>
@@ -8168,7 +8522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:12">
       <c r="C164" t="s">
         <v>599</v>
       </c>
@@ -8197,7 +8551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:12">
       <c r="C165" t="s">
         <v>600</v>
       </c>
@@ -8226,7 +8580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:12">
       <c r="C166" t="s">
         <v>601</v>
       </c>
@@ -8255,7 +8609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:12">
       <c r="C167" t="s">
         <v>602</v>
       </c>
@@ -8284,7 +8638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:12">
       <c r="C168" t="s">
         <v>57</v>
       </c>
@@ -8313,7 +8667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:12">
       <c r="C169" t="s">
         <v>71</v>
       </c>
@@ -8342,7 +8696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:12">
       <c r="C170" t="s">
         <v>72</v>
       </c>
@@ -8371,7 +8725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:12">
       <c r="C171" t="s">
         <v>78</v>
       </c>
@@ -8400,7 +8754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:12">
       <c r="C172" t="s">
         <v>92</v>
       </c>
@@ -8429,7 +8783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:12">
       <c r="C173" t="s">
         <v>101</v>
       </c>
@@ -8458,7 +8812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:12">
       <c r="C174" t="s">
         <v>116</v>
       </c>
@@ -8487,7 +8841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:12">
       <c r="C175" t="s">
         <v>123</v>
       </c>
@@ -8516,7 +8870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:12">
       <c r="C176" t="s">
         <v>125</v>
       </c>
@@ -8545,7 +8899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:12">
       <c r="C177" t="s">
         <v>82</v>
       </c>
@@ -8577,7 +8931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:12">
       <c r="C178" t="s">
         <v>45</v>
       </c>
@@ -8609,7 +8963,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="179" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:12">
       <c r="C179" t="s">
         <v>47</v>
       </c>
@@ -8641,7 +8995,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="180" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:12">
       <c r="C180" t="s">
         <v>260</v>
       </c>
@@ -8670,7 +9024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:12">
       <c r="C181" t="s">
         <v>269</v>
       </c>
@@ -8699,7 +9053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:12">
       <c r="C182" t="s">
         <v>663</v>
       </c>
@@ -8728,7 +9082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:12">
       <c r="C183" t="s">
         <v>24</v>
       </c>
@@ -8757,7 +9111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:12">
       <c r="C184" t="s">
         <v>25</v>
       </c>
@@ -8786,7 +9140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:12">
       <c r="C185" t="s">
         <v>26</v>
       </c>
@@ -8815,7 +9169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:12">
       <c r="C186" t="s">
         <v>151</v>
       </c>
@@ -8844,7 +9198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:12">
       <c r="C187" t="s">
         <v>152</v>
       </c>
@@ -8873,7 +9227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:12">
       <c r="C188" t="s">
         <v>27</v>
       </c>
@@ -8902,7 +9256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:12">
       <c r="C189" t="s">
         <v>16</v>
       </c>
@@ -8931,7 +9285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:12">
       <c r="C190" t="s">
         <v>18</v>
       </c>
@@ -8960,7 +9314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:12">
       <c r="C191" t="s">
         <v>121</v>
       </c>
@@ -8989,7 +9343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:12">
       <c r="C192" t="s">
         <v>88</v>
       </c>
@@ -9018,7 +9372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:12">
       <c r="C193" t="s">
         <v>96</v>
       </c>
@@ -9047,7 +9401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:12">
       <c r="C194" t="s">
         <v>97</v>
       </c>
@@ -9076,7 +9430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:12">
       <c r="C195" t="s">
         <v>633</v>
       </c>
@@ -9105,7 +9459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:12">
       <c r="C196" t="s">
         <v>636</v>
       </c>
@@ -9134,7 +9488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:12">
       <c r="C197" t="s">
         <v>637</v>
       </c>
@@ -9163,7 +9517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:12">
       <c r="C198" t="s">
         <v>638</v>
       </c>
@@ -9192,7 +9546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:12">
       <c r="C199" t="s">
         <v>576</v>
       </c>
@@ -9221,7 +9575,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="200" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:12">
       <c r="C200" t="s">
         <v>581</v>
       </c>
@@ -9250,7 +9604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:12">
       <c r="C201" t="s">
         <v>410</v>
       </c>
@@ -9279,7 +9633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:12">
       <c r="C202" t="s">
         <v>655</v>
       </c>
@@ -9308,7 +9662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:12">
       <c r="C203" t="s">
         <v>472</v>
       </c>
@@ -9337,7 +9691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:12">
       <c r="C204" t="s">
         <v>649</v>
       </c>
@@ -9366,7 +9720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:12">
       <c r="C205" t="s">
         <v>653</v>
       </c>
@@ -9395,7 +9749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:12">
       <c r="C206" t="s">
         <v>467</v>
       </c>
@@ -9424,7 +9778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:12">
       <c r="C207" t="s">
         <v>285</v>
       </c>
@@ -9453,7 +9807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:12">
       <c r="C208" t="s">
         <v>297</v>
       </c>
@@ -9482,7 +9836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:12">
       <c r="C209" t="s">
         <v>395</v>
       </c>
@@ -9511,7 +9865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:12">
       <c r="C210" t="s">
         <v>639</v>
       </c>
@@ -9540,7 +9894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:12">
       <c r="C211" t="s">
         <v>640</v>
       </c>
@@ -9569,7 +9923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:12">
       <c r="C212" t="s">
         <v>641</v>
       </c>
@@ -9598,7 +9952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:12">
       <c r="C213" t="s">
         <v>642</v>
       </c>
@@ -9627,7 +9981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:12">
       <c r="C214" t="s">
         <v>645</v>
       </c>
@@ -9656,7 +10010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:12">
       <c r="C215" t="s">
         <v>396</v>
       </c>
@@ -9685,7 +10039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:12">
       <c r="C216" t="s">
         <v>397</v>
       </c>
@@ -9714,7 +10068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:12">
       <c r="C217" t="s">
         <v>402</v>
       </c>
@@ -9743,7 +10097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:12">
       <c r="C218" t="s">
         <v>403</v>
       </c>
@@ -9772,7 +10126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:12">
       <c r="C219" t="s">
         <v>404</v>
       </c>
@@ -9801,7 +10155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:12">
       <c r="C220" t="s">
         <v>405</v>
       </c>
@@ -9830,7 +10184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:12">
       <c r="C221" t="s">
         <v>406</v>
       </c>
@@ -9859,7 +10213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:12">
       <c r="C222" t="s">
         <v>407</v>
       </c>
@@ -9888,7 +10242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:12">
       <c r="C223" t="s">
         <v>420</v>
       </c>
@@ -9917,7 +10271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:12">
       <c r="C224" t="s">
         <v>424</v>
       </c>
@@ -9946,7 +10300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:12">
       <c r="C225" t="s">
         <v>300</v>
       </c>
@@ -9975,7 +10329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:12">
       <c r="C226" t="s">
         <v>433</v>
       </c>
@@ -10004,7 +10358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:12">
       <c r="C227" t="s">
         <v>440</v>
       </c>
@@ -10033,7 +10387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:12">
       <c r="C228" t="s">
         <v>441</v>
       </c>
@@ -10062,7 +10416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:12">
       <c r="C229" t="s">
         <v>442</v>
       </c>
@@ -10091,7 +10445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:12">
       <c r="C230" t="s">
         <v>443</v>
       </c>
@@ -10120,7 +10474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:12">
       <c r="C231" t="s">
         <v>444</v>
       </c>
@@ -10149,7 +10503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:12">
       <c r="C232" t="s">
         <v>445</v>
       </c>
@@ -10178,7 +10532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:12">
       <c r="C233" t="s">
         <v>446</v>
       </c>
@@ -10207,7 +10561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:12">
       <c r="C234" t="s">
         <v>448</v>
       </c>
@@ -10236,7 +10590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:12">
       <c r="C235" t="s">
         <v>449</v>
       </c>
@@ -10265,7 +10619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:12">
       <c r="C236" t="s">
         <v>450</v>
       </c>
@@ -10294,7 +10648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:12">
       <c r="C237" t="s">
         <v>451</v>
       </c>
@@ -10323,7 +10677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:12">
       <c r="C238" t="s">
         <v>452</v>
       </c>
@@ -10352,7 +10706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:12">
       <c r="C239" t="s">
         <v>453</v>
       </c>
@@ -10381,7 +10735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:12">
       <c r="C240" t="s">
         <v>454</v>
       </c>
@@ -10410,7 +10764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:12">
       <c r="C241" t="s">
         <v>305</v>
       </c>
@@ -10439,7 +10793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:12">
       <c r="C242" t="s">
         <v>459</v>
       </c>
@@ -10468,7 +10822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:12">
       <c r="C243" t="s">
         <v>462</v>
       </c>
@@ -10497,7 +10851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:12">
       <c r="C244" t="s">
         <v>306</v>
       </c>
@@ -10526,7 +10880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:12">
       <c r="C245" t="s">
         <v>477</v>
       </c>
@@ -10555,7 +10909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:12">
       <c r="C246" t="s">
         <v>478</v>
       </c>
@@ -10584,7 +10938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:12">
       <c r="C247" t="s">
         <v>479</v>
       </c>
@@ -10613,7 +10967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:12">
       <c r="C248" t="s">
         <v>480</v>
       </c>
@@ -10642,7 +10996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:12">
       <c r="C249" t="s">
         <v>481</v>
       </c>
@@ -10671,7 +11025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:12">
       <c r="C250" t="s">
         <v>482</v>
       </c>
@@ -10700,7 +11054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:12">
       <c r="C251" t="s">
         <v>483</v>
       </c>
@@ -10729,7 +11083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:12">
       <c r="C252" t="s">
         <v>484</v>
       </c>
@@ -10758,7 +11112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:12">
       <c r="C253" t="s">
         <v>495</v>
       </c>
@@ -10787,7 +11141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:12">
       <c r="C254" t="s">
         <v>289</v>
       </c>
@@ -10816,7 +11170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:12">
       <c r="C255" t="s">
         <v>496</v>
       </c>
@@ -10845,7 +11199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:12">
       <c r="C256" t="s">
         <v>500</v>
       </c>
@@ -10874,7 +11228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:12">
       <c r="C257" t="s">
         <v>501</v>
       </c>
@@ -10903,7 +11257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:12">
       <c r="C258" t="s">
         <v>502</v>
       </c>
@@ -10932,7 +11286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:12">
       <c r="C259" t="s">
         <v>503</v>
       </c>
@@ -10961,7 +11315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:12">
       <c r="C260" t="s">
         <v>504</v>
       </c>
@@ -10990,7 +11344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:12">
       <c r="C261" t="s">
         <v>505</v>
       </c>
@@ -11019,7 +11373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:12">
       <c r="C262" t="s">
         <v>506</v>
       </c>
@@ -11048,7 +11402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:12">
       <c r="C263" t="s">
         <v>507</v>
       </c>
@@ -11077,7 +11431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:12">
       <c r="C264" t="s">
         <v>316</v>
       </c>
@@ -11106,7 +11460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:12">
       <c r="C265" t="s">
         <v>317</v>
       </c>
@@ -11135,7 +11489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:12">
       <c r="C266" t="s">
         <v>318</v>
       </c>
@@ -11164,7 +11518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:12">
       <c r="C267" t="s">
         <v>319</v>
       </c>
@@ -11193,7 +11547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:12">
       <c r="C268" t="s">
         <v>320</v>
       </c>
@@ -11222,7 +11576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:12">
       <c r="C269" t="s">
         <v>290</v>
       </c>
@@ -11251,7 +11605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:12">
       <c r="C270" t="s">
         <v>326</v>
       </c>
@@ -11280,7 +11634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:12">
       <c r="C271" t="s">
         <v>327</v>
       </c>
@@ -11309,7 +11663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:12">
       <c r="C272" t="s">
         <v>328</v>
       </c>
@@ -11338,7 +11692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:12">
       <c r="C273" t="s">
         <v>329</v>
       </c>
@@ -11367,7 +11721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:12">
       <c r="C274" t="s">
         <v>332</v>
       </c>
@@ -11396,7 +11750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:12">
       <c r="C275" t="s">
         <v>333</v>
       </c>
@@ -11425,7 +11779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:12">
       <c r="C276" t="s">
         <v>291</v>
       </c>
@@ -11454,7 +11808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:12">
       <c r="C277" t="s">
         <v>334</v>
       </c>
@@ -11483,7 +11837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:12">
       <c r="C278" t="s">
         <v>335</v>
       </c>
@@ -11512,7 +11866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:12">
       <c r="C279" t="s">
         <v>336</v>
       </c>
@@ -11541,7 +11895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:12">
       <c r="C280" t="s">
         <v>337</v>
       </c>
@@ -11570,7 +11924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:12">
       <c r="C281" t="s">
         <v>338</v>
       </c>
@@ -11599,7 +11953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:12">
       <c r="C282" t="s">
         <v>339</v>
       </c>
@@ -11628,7 +11982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:12">
       <c r="C283" t="s">
         <v>341</v>
       </c>
@@ -11657,7 +12011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:12">
       <c r="C284" t="s">
         <v>342</v>
       </c>
@@ -11686,7 +12040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:12">
       <c r="C285" t="s">
         <v>343</v>
       </c>
@@ -11715,7 +12069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:12">
       <c r="C286" t="s">
         <v>292</v>
       </c>
@@ -11744,7 +12098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:12">
       <c r="C287" t="s">
         <v>344</v>
       </c>
@@ -11773,7 +12127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:12">
       <c r="C288" t="s">
         <v>345</v>
       </c>
@@ -11802,7 +12156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:12">
       <c r="C289" t="s">
         <v>346</v>
       </c>
@@ -11831,7 +12185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:12">
       <c r="C290" t="s">
         <v>347</v>
       </c>
@@ -11860,7 +12214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:12">
       <c r="C291" t="s">
         <v>348</v>
       </c>
@@ -11889,7 +12243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:12">
       <c r="C292" t="s">
         <v>349</v>
       </c>
@@ -11918,7 +12272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:12">
       <c r="C293" t="s">
         <v>350</v>
       </c>
@@ -11947,7 +12301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:12">
       <c r="C294" t="s">
         <v>351</v>
       </c>
@@ -11976,7 +12330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:12">
       <c r="C295" t="s">
         <v>352</v>
       </c>
@@ -12005,7 +12359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:12">
       <c r="C296" t="s">
         <v>353</v>
       </c>
@@ -12034,7 +12388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:12">
       <c r="C297" t="s">
         <v>293</v>
       </c>
@@ -12063,7 +12417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:12">
       <c r="C298" t="s">
         <v>354</v>
       </c>
@@ -12092,7 +12446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:12">
       <c r="C299" t="s">
         <v>355</v>
       </c>
@@ -12121,7 +12475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:12">
       <c r="C300" t="s">
         <v>356</v>
       </c>
@@ -12150,7 +12504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:12">
       <c r="C301" t="s">
         <v>357</v>
       </c>
@@ -12179,7 +12533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:12">
       <c r="C302" t="s">
         <v>358</v>
       </c>
@@ -12208,7 +12562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:12">
       <c r="C303" t="s">
         <v>359</v>
       </c>
@@ -12237,7 +12591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:12">
       <c r="C304" t="s">
         <v>360</v>
       </c>
@@ -12266,7 +12620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:12">
       <c r="C305" t="s">
         <v>361</v>
       </c>
@@ -12295,7 +12649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:12">
       <c r="C306" t="s">
         <v>362</v>
       </c>
@@ -12324,7 +12678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:12">
       <c r="C307" t="s">
         <v>363</v>
       </c>
@@ -12353,7 +12707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:12">
       <c r="C308" t="s">
         <v>294</v>
       </c>
@@ -12382,7 +12736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:12">
       <c r="C309" t="s">
         <v>364</v>
       </c>
@@ -12411,7 +12765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:12">
       <c r="C310" t="s">
         <v>365</v>
       </c>
@@ -12440,7 +12794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:12">
       <c r="C311" t="s">
         <v>366</v>
       </c>
@@ -12469,7 +12823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:12">
       <c r="C312" t="s">
         <v>367</v>
       </c>
@@ -12498,7 +12852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:12">
       <c r="C313" t="s">
         <v>368</v>
       </c>
@@ -12527,7 +12881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:12">
       <c r="C314" t="s">
         <v>369</v>
       </c>
@@ -12556,7 +12910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:12">
       <c r="C315" t="s">
         <v>370</v>
       </c>
@@ -12585,7 +12939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:12">
       <c r="C316" t="s">
         <v>371</v>
       </c>
@@ -12614,7 +12968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:12">
       <c r="C317" t="s">
         <v>372</v>
       </c>
@@ -12643,7 +12997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:12">
       <c r="C318" t="s">
         <v>373</v>
       </c>
@@ -12672,7 +13026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:12">
       <c r="C319" t="s">
         <v>295</v>
       </c>
@@ -12701,7 +13055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:12">
       <c r="C320" t="s">
         <v>374</v>
       </c>
@@ -12730,7 +13084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:12">
       <c r="C321" t="s">
         <v>375</v>
       </c>
@@ -12759,7 +13113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:12">
       <c r="C322" t="s">
         <v>376</v>
       </c>
@@ -12788,7 +13142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:12">
       <c r="C323" t="s">
         <v>377</v>
       </c>
@@ -12817,7 +13171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:12">
       <c r="C324" t="s">
         <v>378</v>
       </c>
@@ -12846,7 +13200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:12">
       <c r="C325" t="s">
         <v>379</v>
       </c>
@@ -12875,7 +13229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:12">
       <c r="C326" t="s">
         <v>380</v>
       </c>
@@ -12904,7 +13258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:12">
       <c r="C327" t="s">
         <v>381</v>
       </c>
@@ -12933,7 +13287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:12">
       <c r="C328" t="s">
         <v>382</v>
       </c>
@@ -12962,7 +13316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:12">
       <c r="C329" t="s">
         <v>383</v>
       </c>
@@ -12991,7 +13345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:12">
       <c r="C330" t="s">
         <v>296</v>
       </c>
@@ -13020,7 +13374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:12">
       <c r="C331" t="s">
         <v>384</v>
       </c>
@@ -13049,7 +13403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:12">
       <c r="C332" t="s">
         <v>385</v>
       </c>
@@ -13078,7 +13432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:12">
       <c r="C333" t="s">
         <v>386</v>
       </c>
@@ -13107,7 +13461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:12">
       <c r="C334" t="s">
         <v>387</v>
       </c>
@@ -13136,7 +13490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:12">
       <c r="C335" t="s">
         <v>388</v>
       </c>
@@ -13165,7 +13519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:12">
       <c r="C336" t="s">
         <v>392</v>
       </c>
@@ -13194,7 +13548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:12">
       <c r="C337" t="s">
         <v>393</v>
       </c>
@@ -13223,7 +13577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:12">
       <c r="C338" t="s">
         <v>394</v>
       </c>
@@ -13252,7 +13606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:12">
       <c r="C339" t="s">
         <v>657</v>
       </c>
@@ -13281,7 +13635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:12">
       <c r="C340" t="s">
         <v>592</v>
       </c>
@@ -13310,7 +13664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:12">
       <c r="C341" t="s">
         <v>594</v>
       </c>
@@ -13339,7 +13693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:12">
       <c r="C342" t="s">
         <v>38</v>
       </c>
@@ -13371,7 +13725,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="343" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:12">
       <c r="C343" t="s">
         <v>39</v>
       </c>
@@ -13403,7 +13757,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="344" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:12">
       <c r="C344" t="s">
         <v>48</v>
       </c>
@@ -13435,7 +13789,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="345" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:12">
       <c r="C345" t="s">
         <v>49</v>
       </c>
@@ -13467,7 +13821,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="346" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:12">
       <c r="C346" t="s">
         <v>50</v>
       </c>
@@ -13499,7 +13853,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="347" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:12">
       <c r="C347" t="s">
         <v>51</v>
       </c>
@@ -13531,7 +13885,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="348" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:12">
       <c r="C348" t="s">
         <v>53</v>
       </c>
@@ -13563,7 +13917,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="349" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:12">
       <c r="C349" t="s">
         <v>54</v>
       </c>
@@ -13595,7 +13949,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="350" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:12">
       <c r="C350" t="s">
         <v>55</v>
       </c>
@@ -13627,7 +13981,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="351" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:12">
       <c r="C351" t="s">
         <v>56</v>
       </c>
@@ -13659,7 +14013,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="352" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:12">
       <c r="C352" t="s">
         <v>81</v>
       </c>
@@ -13691,7 +14045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:12">
       <c r="C353" t="s">
         <v>90</v>
       </c>
@@ -13723,7 +14077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:12">
       <c r="C354" t="s">
         <v>91</v>
       </c>
@@ -13755,7 +14109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:12">
       <c r="C355" t="s">
         <v>585</v>
       </c>
@@ -13787,7 +14141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:12">
       <c r="C356" t="s">
         <v>586</v>
       </c>
@@ -13819,7 +14173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:12">
       <c r="C357" t="s">
         <v>136</v>
       </c>
@@ -13851,7 +14205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:12">
       <c r="C358" t="s">
         <v>28</v>
       </c>
@@ -13883,7 +14237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:12">
       <c r="C359" t="s">
         <v>29</v>
       </c>
@@ -13915,7 +14269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:12">
       <c r="C360" t="s">
         <v>13</v>
       </c>
@@ -13947,7 +14301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:12">
       <c r="C361" t="s">
         <v>15</v>
       </c>
@@ -13961,7 +14315,7 @@
       </c>
       <c r="F361" t="str">
         <f t="shared" si="17"/>
-        <v>Last</v>
+        <v/>
       </c>
       <c r="G361" t="s">
         <v>14</v>
@@ -13979,17 +14333,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:12">
       <c r="C362" t="s">
         <v>117</v>
       </c>
       <c r="D362" t="str">
         <f t="shared" si="15"/>
-        <v>C91</v>
+        <v>C1001, C1002, C110, C14, C15, C4, C5, C91</v>
       </c>
       <c r="E362">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F362" t="str">
         <f t="shared" si="17"/>
@@ -13998,6 +14352,9 @@
       <c r="G362" t="s">
         <v>14</v>
       </c>
+      <c r="H362" t="s">
+        <v>789</v>
+      </c>
       <c r="J362" t="s">
         <v>8</v>
       </c>
@@ -14008,17 +14365,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:12">
       <c r="C363" t="s">
         <v>118</v>
       </c>
       <c r="D363" t="str">
         <f t="shared" si="15"/>
-        <v>C91, C92</v>
+        <v>C1001, C1002, C110, C14, C15, C4, C5, C91, C92</v>
       </c>
       <c r="E363">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F363" t="str">
         <f t="shared" si="17"/>
@@ -14027,6 +14384,9 @@
       <c r="G363" t="s">
         <v>14</v>
       </c>
+      <c r="H363" t="s">
+        <v>789</v>
+      </c>
       <c r="J363" t="s">
         <v>8</v>
       </c>
@@ -14037,17 +14397,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:12">
       <c r="C364" t="s">
         <v>119</v>
       </c>
       <c r="D364" t="str">
         <f t="shared" si="15"/>
-        <v>C91, C92, C93</v>
+        <v>C1001, C1002, C110, C14, C15, C4, C5, C91, C92, C93</v>
       </c>
       <c r="E364">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F364" t="str">
         <f t="shared" si="17"/>
@@ -14056,6 +14416,9 @@
       <c r="G364" t="s">
         <v>14</v>
       </c>
+      <c r="H364" t="s">
+        <v>789</v>
+      </c>
       <c r="J364" t="s">
         <v>8</v>
       </c>
@@ -14066,7 +14429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:12">
       <c r="C365" t="s">
         <v>263</v>
       </c>
@@ -14095,7 +14458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:12">
       <c r="C366" t="s">
         <v>469</v>
       </c>
@@ -14124,7 +14487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:12">
       <c r="C367" t="s">
         <v>314</v>
       </c>
@@ -14153,7 +14516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:12">
       <c r="C368" t="s">
         <v>309</v>
       </c>
@@ -14182,7 +14545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:12">
       <c r="C369" t="s">
         <v>398</v>
       </c>
@@ -14211,7 +14574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="370" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:12">
       <c r="C370" t="s">
         <v>399</v>
       </c>
@@ -14240,7 +14603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:12">
       <c r="C371" t="s">
         <v>400</v>
       </c>
@@ -14269,7 +14632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:12">
       <c r="C372" t="s">
         <v>401</v>
       </c>
@@ -14298,7 +14661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:12">
       <c r="C373" t="s">
         <v>447</v>
       </c>
@@ -14327,7 +14690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:12">
       <c r="C374" t="s">
         <v>498</v>
       </c>
@@ -14356,7 +14719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:12">
       <c r="C375" t="s">
         <v>389</v>
       </c>
@@ -14385,7 +14748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:12">
       <c r="C376" t="s">
         <v>391</v>
       </c>
@@ -14414,7 +14777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:12">
       <c r="C377" t="s">
         <v>312</v>
       </c>
@@ -14443,7 +14806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:12">
       <c r="C378" t="s">
         <v>659</v>
       </c>
@@ -14472,7 +14835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:12">
       <c r="C379" t="s">
         <v>435</v>
       </c>
@@ -14501,7 +14864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:12">
       <c r="C380" t="s">
         <v>179</v>
       </c>
@@ -14530,7 +14893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:12">
       <c r="C381" t="s">
         <v>180</v>
       </c>
@@ -14559,7 +14922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:12">
       <c r="C382" t="s">
         <v>162</v>
       </c>
@@ -14588,7 +14951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:12">
       <c r="C383" t="s">
         <v>181</v>
       </c>
@@ -14617,7 +14980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:12">
       <c r="C384" t="s">
         <v>247</v>
       </c>
@@ -14646,7 +15009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:12">
       <c r="C385" t="s">
         <v>249</v>
       </c>
@@ -14675,7 +15038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:12">
       <c r="C386" t="s">
         <v>629</v>
       </c>
@@ -14704,7 +15067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:12">
       <c r="C387" t="s">
         <v>190</v>
       </c>
@@ -14733,7 +15096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:12">
       <c r="C388" t="s">
         <v>614</v>
       </c>
@@ -14762,7 +15125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:12">
       <c r="C389" t="s">
         <v>616</v>
       </c>
@@ -14791,7 +15154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:12">
       <c r="C390" t="s">
         <v>617</v>
       </c>
@@ -14820,7 +15183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:12">
       <c r="C391" t="s">
         <v>618</v>
       </c>
@@ -14849,7 +15212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:12">
       <c r="C392" t="s">
         <v>619</v>
       </c>
@@ -14878,7 +15241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:12">
       <c r="C393" t="s">
         <v>620</v>
       </c>
@@ -14907,7 +15270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:12">
       <c r="C394" t="s">
         <v>621</v>
       </c>
@@ -14936,7 +15299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:12">
       <c r="C395" t="s">
         <v>622</v>
       </c>
@@ -14965,7 +15328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:12">
       <c r="C396" t="s">
         <v>623</v>
       </c>
@@ -14994,7 +15357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:12">
       <c r="C397" t="s">
         <v>624</v>
       </c>
@@ -15023,7 +15386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:12">
       <c r="C398" t="s">
         <v>625</v>
       </c>
@@ -15052,7 +15415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:12">
       <c r="C399" t="s">
         <v>626</v>
       </c>
@@ -15081,7 +15444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:12">
       <c r="C400" t="s">
         <v>627</v>
       </c>
@@ -15110,7 +15473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:12">
       <c r="C401" t="s">
         <v>628</v>
       </c>
@@ -15139,7 +15502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:12">
       <c r="C402" t="s">
         <v>207</v>
       </c>
@@ -15168,7 +15531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:12">
       <c r="C403" t="s">
         <v>185</v>
       </c>
@@ -15197,7 +15560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:12">
       <c r="C404" t="s">
         <v>189</v>
       </c>
@@ -15226,7 +15589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:12">
       <c r="C405" t="s">
         <v>211</v>
       </c>
@@ -15255,7 +15618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:12">
       <c r="C406" t="s">
         <v>194</v>
       </c>
@@ -15284,7 +15647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:12">
       <c r="C407" t="s">
         <v>547</v>
       </c>
@@ -15310,7 +15673,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="408" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:12">
       <c r="C408" t="s">
         <v>250</v>
       </c>
@@ -15339,7 +15702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:12">
       <c r="C409" t="s">
         <v>265</v>
       </c>
@@ -15368,7 +15731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:12">
       <c r="C410" t="s">
         <v>273</v>
       </c>
@@ -15397,7 +15760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:12">
       <c r="C411" t="s">
         <v>254</v>
       </c>
@@ -15426,7 +15789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:12">
       <c r="C412" t="s">
         <v>255</v>
       </c>
@@ -15455,7 +15818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:12">
       <c r="C413" t="s">
         <v>256</v>
       </c>
@@ -15484,7 +15847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:12">
       <c r="C414" t="s">
         <v>257</v>
       </c>
@@ -15513,7 +15876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:12">
       <c r="C415" t="s">
         <v>258</v>
       </c>
@@ -15542,7 +15905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:12">
       <c r="C416" t="s">
         <v>259</v>
       </c>
@@ -15571,7 +15934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:12">
       <c r="C417" t="s">
         <v>282</v>
       </c>
@@ -15597,7 +15960,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="418" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:12">
       <c r="C418" t="s">
         <v>177</v>
       </c>
@@ -15626,7 +15989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:12">
       <c r="C419" t="s">
         <v>178</v>
       </c>
@@ -15655,7 +16018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:12">
       <c r="C420" t="s">
         <v>170</v>
       </c>
@@ -15684,7 +16047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:12">
       <c r="C421" t="s">
         <v>168</v>
       </c>
@@ -15713,7 +16076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:12">
       <c r="C422" t="s">
         <v>176</v>
       </c>
@@ -15742,7 +16105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:12">
       <c r="C423" t="s">
         <v>164</v>
       </c>
@@ -15771,7 +16134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:12">
       <c r="C424" t="s">
         <v>172</v>
       </c>
@@ -15800,7 +16163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:12">
       <c r="C425" t="s">
         <v>174</v>
       </c>
@@ -15829,7 +16192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:12">
       <c r="C426" t="s">
         <v>175</v>
       </c>
@@ -15858,7 +16221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:12">
       <c r="C427" t="s">
         <v>675</v>
       </c>
@@ -15887,7 +16250,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="428" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:12">
       <c r="C428" t="s">
         <v>669</v>
       </c>
@@ -15916,7 +16279,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="429" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:12">
       <c r="C429" t="s">
         <v>674</v>
       </c>
@@ -15945,7 +16308,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="430" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:12">
       <c r="C430" t="s">
         <v>533</v>
       </c>
@@ -15971,7 +16334,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="431" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:12">
       <c r="C431" t="s">
         <v>153</v>
       </c>
@@ -16000,7 +16363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:12">
       <c r="C432" t="s">
         <v>157</v>
       </c>
@@ -16029,7 +16392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="433" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:12">
       <c r="C433" t="s">
         <v>541</v>
       </c>
@@ -16058,7 +16421,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="434" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:12">
       <c r="C434" t="s">
         <v>202</v>
       </c>
@@ -16087,7 +16450,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="435" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:12">
       <c r="C435" t="s">
         <v>525</v>
       </c>
@@ -16113,7 +16476,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="436" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:12">
       <c r="C436" t="s">
         <v>529</v>
       </c>
@@ -16139,7 +16502,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="437" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:12">
       <c r="C437" t="s">
         <v>73</v>
       </c>
@@ -16168,7 +16531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:12">
       <c r="C438" t="s">
         <v>79</v>
       </c>
@@ -16197,7 +16560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:12">
       <c r="C439" t="s">
         <v>95</v>
       </c>
@@ -16226,7 +16589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:12">
       <c r="C440" t="s">
         <v>298</v>
       </c>
@@ -16255,7 +16618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:12">
       <c r="C441" t="s">
         <v>414</v>
       </c>
@@ -16284,7 +16647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:12">
       <c r="C442" t="s">
         <v>299</v>
       </c>
@@ -16313,7 +16676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:12">
       <c r="C443" t="s">
         <v>486</v>
       </c>
@@ -16342,7 +16705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:12">
       <c r="C444" t="s">
         <v>687</v>
       </c>
@@ -16371,7 +16734,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="445" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:12">
       <c r="C445" t="s">
         <v>514</v>
       </c>
@@ -16400,7 +16763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:12">
       <c r="C446" t="s">
         <v>631</v>
       </c>
@@ -16429,7 +16792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:12">
       <c r="C447" t="s">
         <v>686</v>
       </c>
@@ -16455,7 +16818,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="448" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:12">
       <c r="C448" t="s">
         <v>559</v>
       </c>
@@ -16484,7 +16847,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="449" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:12">
       <c r="C449" t="s">
         <v>219</v>
       </c>
@@ -16513,12 +16876,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:12">
       <c r="C450" t="s">
         <v>223</v>
       </c>
       <c r="D450" t="str">
-        <f t="shared" ref="D450:D513" si="21">IF(AND(G450=G449,H450=H449),D449&amp;", "&amp;C450,C450)</f>
+        <f t="shared" ref="D450:D482" si="21">IF(AND(G450=G449,H450=H449),D449&amp;", "&amp;C450,C450)</f>
         <v>JP2</v>
       </c>
       <c r="E450">
@@ -16526,7 +16889,7 @@
         <v>1</v>
       </c>
       <c r="F450" t="str">
-        <f t="shared" ref="F450:F513" si="23">IF(OR(G450&lt;&gt;G451,H450&lt;&gt;H451),"Last","")</f>
+        <f t="shared" ref="F450:F482" si="23">IF(OR(G450&lt;&gt;G451,H450&lt;&gt;H451),"Last","")</f>
         <v>Last</v>
       </c>
       <c r="G450" t="s">
@@ -16542,7 +16905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:12">
       <c r="C451" t="s">
         <v>225</v>
       </c>
@@ -16571,7 +16934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:12">
       <c r="C452" t="s">
         <v>227</v>
       </c>
@@ -16600,7 +16963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:12">
       <c r="C453" t="s">
         <v>229</v>
       </c>
@@ -16629,7 +16992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:12">
       <c r="C454" t="s">
         <v>231</v>
       </c>
@@ -16658,7 +17021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:12">
       <c r="C455" t="s">
         <v>233</v>
       </c>
@@ -16687,7 +17050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:12">
       <c r="C456" t="s">
         <v>235</v>
       </c>
@@ -16716,7 +17079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:12">
       <c r="C457" t="s">
         <v>237</v>
       </c>
@@ -16745,7 +17108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:12">
       <c r="C458" t="s">
         <v>239</v>
       </c>
@@ -16774,7 +17137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:12">
       <c r="C459" t="s">
         <v>241</v>
       </c>
@@ -16803,7 +17166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:12">
       <c r="C460" t="s">
         <v>243</v>
       </c>
@@ -16832,7 +17195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:12">
       <c r="C461" t="s">
         <v>245</v>
       </c>
@@ -16861,7 +17224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:12">
       <c r="C462" t="s">
         <v>158</v>
       </c>
@@ -16880,6 +17243,9 @@
       <c r="G462" t="s">
         <v>159</v>
       </c>
+      <c r="H462" t="s">
+        <v>761</v>
+      </c>
       <c r="J462" t="s">
         <v>155</v>
       </c>
@@ -16890,7 +17256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:12">
       <c r="C463" t="s">
         <v>160</v>
       </c>
@@ -16909,6 +17275,9 @@
       <c r="G463" t="s">
         <v>159</v>
       </c>
+      <c r="H463" t="s">
+        <v>761</v>
+      </c>
       <c r="J463" t="s">
         <v>155</v>
       </c>
@@ -16919,7 +17288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:12">
       <c r="C464" t="s">
         <v>161</v>
       </c>
@@ -16936,7 +17305,10 @@
         <v>Last</v>
       </c>
       <c r="G464" t="s">
-        <v>159</v>
+        <v>760</v>
+      </c>
+      <c r="H464" t="s">
+        <v>761</v>
       </c>
       <c r="J464" t="s">
         <v>155</v>
@@ -16948,7 +17320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:12">
       <c r="C465" t="s">
         <v>198</v>
       </c>
@@ -16974,7 +17346,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="466" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:12">
       <c r="C466" t="s">
         <v>274</v>
       </c>
@@ -17003,7 +17375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:12">
       <c r="C467" t="s">
         <v>563</v>
       </c>
@@ -17020,7 +17392,10 @@
         <v>Last</v>
       </c>
       <c r="G467" t="s">
-        <v>564</v>
+        <v>758</v>
+      </c>
+      <c r="H467" s="1" t="s">
+        <v>759</v>
       </c>
       <c r="J467" t="s">
         <v>565</v>
@@ -17029,7 +17404,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="468" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:12">
       <c r="C468" t="s">
         <v>567</v>
       </c>
@@ -17046,6 +17421,9 @@
         <v>Last</v>
       </c>
       <c r="G468" t="s">
+        <v>757</v>
+      </c>
+      <c r="H468" t="s">
         <v>568</v>
       </c>
       <c r="J468" t="s">
@@ -17055,7 +17433,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="469" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:12">
       <c r="C469" t="s">
         <v>509</v>
       </c>
@@ -17081,7 +17459,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="470" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="470" spans="3:12">
       <c r="C470" t="s">
         <v>513</v>
       </c>
@@ -17107,7 +17485,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="471" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="471" spans="3:12">
       <c r="C471" t="s">
         <v>278</v>
       </c>
@@ -17133,7 +17511,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="472" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="472" spans="3:12">
       <c r="C472" t="s">
         <v>554</v>
       </c>
@@ -17150,7 +17528,10 @@
         <v>Last</v>
       </c>
       <c r="G472" t="s">
-        <v>555</v>
+        <v>750</v>
+      </c>
+      <c r="H472" t="s">
+        <v>751</v>
       </c>
       <c r="J472" t="s">
         <v>556</v>
@@ -17162,7 +17543,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="473" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="473" spans="3:12">
       <c r="C473" t="s">
         <v>550</v>
       </c>
@@ -17179,7 +17560,10 @@
         <v>Last</v>
       </c>
       <c r="G473" t="s">
-        <v>551</v>
+        <v>748</v>
+      </c>
+      <c r="H473" t="s">
+        <v>749</v>
       </c>
       <c r="J473" t="s">
         <v>552</v>
@@ -17188,7 +17572,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="474" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="474" spans="3:12">
       <c r="C474" t="s">
         <v>521</v>
       </c>
@@ -17205,7 +17589,10 @@
         <v>Last</v>
       </c>
       <c r="G474" t="s">
-        <v>522</v>
+        <v>752</v>
+      </c>
+      <c r="H474" t="s">
+        <v>753</v>
       </c>
       <c r="J474" t="s">
         <v>523</v>
@@ -17214,7 +17601,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="475" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="475" spans="3:12">
       <c r="C475" t="s">
         <v>214</v>
       </c>
@@ -17243,7 +17630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="476" spans="3:12">
       <c r="C476" t="s">
         <v>218</v>
       </c>
@@ -17272,7 +17659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="477" spans="3:12">
       <c r="C477" t="s">
         <v>570</v>
       </c>
@@ -17289,6 +17676,9 @@
         <v/>
       </c>
       <c r="G477" t="s">
+        <v>754</v>
+      </c>
+      <c r="H477" t="s">
         <v>571</v>
       </c>
       <c r="J477" t="s">
@@ -17301,7 +17691,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="478" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="478" spans="3:12">
       <c r="C478" t="s">
         <v>575</v>
       </c>
@@ -17320,6 +17710,9 @@
       <c r="G478" t="s">
         <v>571</v>
       </c>
+      <c r="H478" t="s">
+        <v>571</v>
+      </c>
       <c r="J478" t="s">
         <v>572</v>
       </c>
@@ -17330,7 +17723,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="479" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="479" spans="3:12">
       <c r="C479" t="s">
         <v>517</v>
       </c>
@@ -17356,7 +17749,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="480" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="480" spans="3:12">
       <c r="C480" t="s">
         <v>668</v>
       </c>
@@ -17373,7 +17766,10 @@
         <v/>
       </c>
       <c r="G480" t="s">
-        <v>538</v>
+        <v>755</v>
+      </c>
+      <c r="H480" t="s">
+        <v>756</v>
       </c>
       <c r="J480" t="s">
         <v>539</v>
@@ -17382,7 +17778,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="481" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:11">
       <c r="C481" t="s">
         <v>537</v>
       </c>
@@ -17401,6 +17797,9 @@
       <c r="G481" t="s">
         <v>538</v>
       </c>
+      <c r="H481" t="s">
+        <v>756</v>
+      </c>
       <c r="J481" t="s">
         <v>539</v>
       </c>
@@ -17408,7 +17807,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="482" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:11">
       <c r="C482" t="s">
         <v>546</v>
       </c>
@@ -17426,6 +17825,9 @@
       </c>
       <c r="G482" t="s">
         <v>538</v>
+      </c>
+      <c r="H482" t="s">
+        <v>756</v>
       </c>
       <c r="J482" t="s">
         <v>539</v>
@@ -17451,11 +17853,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02910B57-B950-4405-8C8E-32E5FA21D0BD}">
   <dimension ref="B2:L105"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="37.875" customWidth="1"/>
@@ -17466,7 +17868,7 @@
     <col min="11" max="11" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -17495,7 +17897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12">
       <c r="B3" t="s">
         <v>44</v>
       </c>
@@ -17525,7 +17927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
         <v>124</v>
       </c>
@@ -17555,7 +17957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
         <v>148</v>
       </c>
@@ -17582,7 +17984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12">
       <c r="B6" t="s">
         <v>476</v>
       </c>
@@ -17612,7 +18014,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12">
       <c r="B7" t="s">
         <v>266</v>
       </c>
@@ -17642,7 +18044,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12">
       <c r="B8" t="s">
         <v>665</v>
       </c>
@@ -17672,7 +18074,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12">
       <c r="B9" t="s">
         <v>598</v>
       </c>
@@ -17699,7 +18101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12">
       <c r="B10" t="s">
         <v>98</v>
       </c>
@@ -17726,7 +18128,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12">
       <c r="B11" t="s">
         <v>340</v>
       </c>
@@ -17756,7 +18158,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="B12" t="s">
         <v>102</v>
       </c>
@@ -17783,7 +18185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12">
       <c r="B13" t="s">
         <v>122</v>
       </c>
@@ -17813,7 +18215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12">
       <c r="B14" t="s">
         <v>661</v>
       </c>
@@ -17840,7 +18242,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12">
       <c r="B15" t="s">
         <v>651</v>
       </c>
@@ -17867,7 +18269,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12">
       <c r="B16" t="s">
         <v>418</v>
       </c>
@@ -17897,7 +18299,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>110</v>
       </c>
@@ -17927,7 +18329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>325</v>
       </c>
@@ -17957,7 +18359,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>311</v>
       </c>
@@ -17987,7 +18389,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>613</v>
       </c>
@@ -18014,7 +18416,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>125</v>
       </c>
@@ -18044,7 +18446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>82</v>
       </c>
@@ -18074,7 +18476,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>260</v>
       </c>
@@ -18104,7 +18506,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>269</v>
       </c>
@@ -18131,7 +18533,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>663</v>
       </c>
@@ -18158,7 +18560,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
         <v>121</v>
       </c>
@@ -18188,7 +18590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12">
       <c r="B27" t="s">
         <v>97</v>
       </c>
@@ -18218,7 +18620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12">
       <c r="B28" t="s">
         <v>638</v>
       </c>
@@ -18245,7 +18647,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12">
       <c r="B29" t="s">
         <v>576</v>
       </c>
@@ -18272,7 +18674,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12">
       <c r="B30" t="s">
         <v>581</v>
       </c>
@@ -18299,7 +18701,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
         <v>410</v>
       </c>
@@ -18329,7 +18731,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12">
       <c r="B32" t="s">
         <v>655</v>
       </c>
@@ -18356,7 +18758,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12">
       <c r="B33" t="s">
         <v>472</v>
       </c>
@@ -18383,7 +18785,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12">
       <c r="B34" t="s">
         <v>649</v>
       </c>
@@ -18410,7 +18812,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12">
       <c r="B35" t="s">
         <v>653</v>
       </c>
@@ -18437,7 +18839,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12">
       <c r="B36" t="s">
         <v>467</v>
       </c>
@@ -18464,7 +18866,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12">
       <c r="B37" t="s">
         <v>394</v>
       </c>
@@ -18494,7 +18896,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12">
       <c r="B38" t="s">
         <v>657</v>
       </c>
@@ -18521,7 +18923,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12">
       <c r="B39" t="s">
         <v>594</v>
       </c>
@@ -18548,7 +18950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12">
       <c r="B40" t="s">
         <v>119</v>
       </c>
@@ -18578,7 +18980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12">
       <c r="B41" t="s">
         <v>263</v>
       </c>
@@ -18605,7 +19007,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12">
       <c r="B42" t="s">
         <v>469</v>
       </c>
@@ -18632,7 +19034,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12">
       <c r="B43" t="s">
         <v>314</v>
       </c>
@@ -18662,7 +19064,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12">
       <c r="B44" t="s">
         <v>309</v>
       </c>
@@ -18692,7 +19094,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12">
       <c r="B45" t="s">
         <v>391</v>
       </c>
@@ -18722,7 +19124,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12">
       <c r="B46" t="s">
         <v>312</v>
       </c>
@@ -18752,7 +19154,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12">
       <c r="B47" t="s">
         <v>435</v>
       </c>
@@ -18782,7 +19184,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12">
       <c r="B48" t="s">
         <v>162</v>
       </c>
@@ -18809,7 +19211,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12">
       <c r="B49" t="s">
         <v>181</v>
       </c>
@@ -18836,7 +19238,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12">
       <c r="B50" t="s">
         <v>249</v>
       </c>
@@ -18863,7 +19265,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12">
       <c r="B51" t="s">
         <v>629</v>
       </c>
@@ -18890,7 +19292,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12">
       <c r="B52" t="s">
         <v>190</v>
       </c>
@@ -18917,7 +19319,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12">
       <c r="B53" t="s">
         <v>207</v>
       </c>
@@ -18944,7 +19346,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12">
       <c r="B54" t="s">
         <v>189</v>
       </c>
@@ -18971,7 +19373,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12">
       <c r="B55" t="s">
         <v>211</v>
       </c>
@@ -18998,7 +19400,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12">
       <c r="B56" t="s">
         <v>194</v>
       </c>
@@ -19025,7 +19427,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12">
       <c r="B57" t="s">
         <v>547</v>
       </c>
@@ -19052,7 +19454,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12">
       <c r="B58" t="s">
         <v>259</v>
       </c>
@@ -19079,7 +19481,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12">
       <c r="B59" t="s">
         <v>282</v>
       </c>
@@ -19106,7 +19508,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12">
       <c r="B60" t="s">
         <v>170</v>
       </c>
@@ -19133,7 +19535,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12">
       <c r="B61" t="s">
         <v>164</v>
       </c>
@@ -19160,7 +19562,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12">
       <c r="B62" t="s">
         <v>675</v>
       </c>
@@ -19187,7 +19589,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12">
       <c r="B63" t="s">
         <v>674</v>
       </c>
@@ -19214,7 +19616,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12">
       <c r="B64" t="s">
         <v>533</v>
       </c>
@@ -19241,7 +19643,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12">
       <c r="B65" t="s">
         <v>157</v>
       </c>
@@ -19268,7 +19670,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12">
       <c r="B66" t="s">
         <v>541</v>
       </c>
@@ -19295,7 +19697,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12">
       <c r="B67" t="s">
         <v>202</v>
       </c>
@@ -19322,7 +19724,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12">
       <c r="B68" t="s">
         <v>525</v>
       </c>
@@ -19349,7 +19751,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12">
       <c r="B69" t="s">
         <v>529</v>
       </c>
@@ -19376,7 +19778,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12">
       <c r="B70" t="s">
         <v>486</v>
       </c>
@@ -19403,7 +19805,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12">
       <c r="B71" t="s">
         <v>687</v>
       </c>
@@ -19430,7 +19832,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12">
       <c r="B72" t="s">
         <v>514</v>
       </c>
@@ -19460,7 +19862,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12">
       <c r="B73" t="s">
         <v>686</v>
       </c>
@@ -19487,7 +19889,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12">
       <c r="B74" t="s">
         <v>559</v>
       </c>
@@ -19514,7 +19916,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12">
       <c r="B75" t="s">
         <v>219</v>
       </c>
@@ -19541,7 +19943,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12">
       <c r="B76" t="s">
         <v>223</v>
       </c>
@@ -19568,7 +19970,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12">
       <c r="B77" t="s">
         <v>225</v>
       </c>
@@ -19595,7 +19997,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:12">
       <c r="B78" t="s">
         <v>227</v>
       </c>
@@ -19622,7 +20024,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12">
       <c r="B79" t="s">
         <v>229</v>
       </c>
@@ -19649,7 +20051,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12">
       <c r="B80" t="s">
         <v>231</v>
       </c>
@@ -19676,7 +20078,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12">
       <c r="B81" t="s">
         <v>233</v>
       </c>
@@ -19703,7 +20105,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12">
       <c r="B82" t="s">
         <v>235</v>
       </c>
@@ -19730,7 +20132,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12">
       <c r="B83" t="s">
         <v>237</v>
       </c>
@@ -19757,7 +20159,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:12">
       <c r="B84" t="s">
         <v>239</v>
       </c>
@@ -19784,7 +20186,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:12">
       <c r="B85" t="s">
         <v>241</v>
       </c>
@@ -19811,7 +20213,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:12">
       <c r="B86" t="s">
         <v>243</v>
       </c>
@@ -19838,7 +20240,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:12">
       <c r="B87" t="s">
         <v>245</v>
       </c>
@@ -19865,7 +20267,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:12">
       <c r="B88" t="s">
         <v>161</v>
       </c>
@@ -19892,7 +20294,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:12">
       <c r="B89" t="s">
         <v>198</v>
       </c>
@@ -19919,7 +20321,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:12">
       <c r="B90" t="s">
         <v>274</v>
       </c>
@@ -19946,7 +20348,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:12">
       <c r="B91" t="s">
         <v>563</v>
       </c>
@@ -19973,7 +20375,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:12">
       <c r="B92" t="s">
         <v>567</v>
       </c>
@@ -20000,7 +20402,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:12">
       <c r="B93" t="s">
         <v>513</v>
       </c>
@@ -20027,7 +20429,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12">
       <c r="B94" t="s">
         <v>278</v>
       </c>
@@ -20054,7 +20456,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:12">
       <c r="B95" t="s">
         <v>554</v>
       </c>
@@ -20081,7 +20483,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:12">
       <c r="B96" t="s">
         <v>550</v>
       </c>
@@ -20108,7 +20510,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:12">
       <c r="B97" t="s">
         <v>521</v>
       </c>
@@ -20135,7 +20537,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:12">
       <c r="B98" t="s">
         <v>218</v>
       </c>
@@ -20162,7 +20564,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:12">
       <c r="B99" t="s">
         <v>575</v>
       </c>
@@ -20189,7 +20591,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:12">
       <c r="B100" t="s">
         <v>517</v>
       </c>
@@ -20216,7 +20618,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:12">
       <c r="B101" t="s">
         <v>546</v>
       </c>
@@ -20243,17 +20645,17 @@
         <v>540</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:12">
       <c r="H103" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:12">
       <c r="H104" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:12">
       <c r="H105" t="s">
         <v>741</v>
       </c>
@@ -20262,4 +20664,3026 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0783FAD6-535F-44E4-813B-447FCB230AB9}">
+  <dimension ref="B2:K107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="45.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="75.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="86.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>747</v>
+      </c>
+      <c r="H2" t="s">
+        <v>682</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F3" t="s">
+        <v>593</v>
+      </c>
+      <c r="H3" t="s">
+        <v>791</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>693</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>762</v>
+      </c>
+      <c r="H4" t="s">
+        <v>799</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C5" t="s">
+        <v>697</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>693</v>
+      </c>
+      <c r="F5" t="s">
+        <v>597</v>
+      </c>
+      <c r="H5" t="s">
+        <v>779</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>693</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" t="s">
+        <v>778</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>763</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>693</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>774</v>
+      </c>
+      <c r="H7" t="s">
+        <v>776</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>692</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>693</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>774</v>
+      </c>
+      <c r="H8" t="s">
+        <v>775</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>766</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>693</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>733</v>
+      </c>
+      <c r="H9" t="s">
+        <v>784</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>767</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>693</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>793</v>
+      </c>
+      <c r="H10" t="s">
+        <v>787</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>769</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>693</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>794</v>
+      </c>
+      <c r="H11" t="s">
+        <v>788</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>693</v>
+      </c>
+      <c r="F12" t="s">
+        <v>782</v>
+      </c>
+      <c r="G12" t="s">
+        <v>732</v>
+      </c>
+      <c r="H12" t="s">
+        <v>783</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>768</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>693</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>793</v>
+      </c>
+      <c r="H13" t="s">
+        <v>792</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>708</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>693</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>786</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>698</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>693</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>796</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>693</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" t="s">
+        <v>795</v>
+      </c>
+      <c r="H16" t="s">
+        <v>797</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>701</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>693</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>780</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>765</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>693</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>796</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>770</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>693</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>788</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>707</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>693</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>785</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>764</v>
+      </c>
+      <c r="D21">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>693</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>745</v>
+      </c>
+      <c r="H21" t="s">
+        <v>777</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>705</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>693</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>781</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" t="s">
+        <v>613</v>
+      </c>
+      <c r="C23" t="s">
+        <v>704</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>693</v>
+      </c>
+      <c r="F23" t="s">
+        <v>606</v>
+      </c>
+      <c r="H23" t="s">
+        <v>800</v>
+      </c>
+      <c r="I23" t="s">
+        <v>607</v>
+      </c>
+      <c r="J23" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>693</v>
+      </c>
+      <c r="F24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" t="s">
+        <v>796</v>
+      </c>
+      <c r="I24" t="s">
+        <v>166</v>
+      </c>
+      <c r="J24" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" t="s">
+        <v>772</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>693</v>
+      </c>
+      <c r="F25" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" t="s">
+        <v>796</v>
+      </c>
+      <c r="I25" t="s">
+        <v>166</v>
+      </c>
+      <c r="J25" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" t="s">
+        <v>723</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>693</v>
+      </c>
+      <c r="F26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" t="s">
+        <v>800</v>
+      </c>
+      <c r="I26" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" t="s">
+        <v>726</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>693</v>
+      </c>
+      <c r="F27" t="s">
+        <v>760</v>
+      </c>
+      <c r="G27" t="s">
+        <v>761</v>
+      </c>
+      <c r="H27" t="s">
+        <v>800</v>
+      </c>
+      <c r="I27" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" t="s">
+        <v>156</v>
+      </c>
+      <c r="K27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" t="s">
+        <v>715</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>693</v>
+      </c>
+      <c r="F28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" t="s">
+        <v>800</v>
+      </c>
+      <c r="I28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" t="s">
+        <v>156</v>
+      </c>
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>693</v>
+      </c>
+      <c r="F29" t="s">
+        <v>182</v>
+      </c>
+      <c r="I29" t="s">
+        <v>183</v>
+      </c>
+      <c r="J29" t="s">
+        <v>184</v>
+      </c>
+      <c r="K29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" t="s">
+        <v>628</v>
+      </c>
+      <c r="C30" t="s">
+        <v>771</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>693</v>
+      </c>
+      <c r="F30" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J30" t="s">
+        <v>615</v>
+      </c>
+      <c r="K30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>693</v>
+      </c>
+      <c r="F31" t="s">
+        <v>212</v>
+      </c>
+      <c r="I31" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" t="s">
+        <v>201</v>
+      </c>
+      <c r="K31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" t="s">
+        <v>728</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>693</v>
+      </c>
+      <c r="F32" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" t="s">
+        <v>801</v>
+      </c>
+      <c r="I32" t="s">
+        <v>216</v>
+      </c>
+      <c r="J32" t="s">
+        <v>217</v>
+      </c>
+      <c r="K32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" t="s">
+        <v>718</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>693</v>
+      </c>
+      <c r="F33" t="s">
+        <v>186</v>
+      </c>
+      <c r="I33" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33" t="s">
+        <v>188</v>
+      </c>
+      <c r="K33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>693</v>
+      </c>
+      <c r="F34" t="s">
+        <v>195</v>
+      </c>
+      <c r="H34" t="s">
+        <v>803</v>
+      </c>
+      <c r="I34" t="s">
+        <v>196</v>
+      </c>
+      <c r="J34" t="s">
+        <v>802</v>
+      </c>
+      <c r="K34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>693</v>
+      </c>
+      <c r="F35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I35" t="s">
+        <v>200</v>
+      </c>
+      <c r="J35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>693</v>
+      </c>
+      <c r="F36" t="s">
+        <v>203</v>
+      </c>
+      <c r="I36" t="s">
+        <v>204</v>
+      </c>
+      <c r="J36" t="s">
+        <v>205</v>
+      </c>
+      <c r="K36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>693</v>
+      </c>
+      <c r="F37" t="s">
+        <v>208</v>
+      </c>
+      <c r="I37" t="s">
+        <v>209</v>
+      </c>
+      <c r="J37" t="s">
+        <v>210</v>
+      </c>
+      <c r="K37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>693</v>
+      </c>
+      <c r="F38" t="s">
+        <v>220</v>
+      </c>
+      <c r="H38" t="s">
+        <v>804</v>
+      </c>
+      <c r="I38" t="s">
+        <v>221</v>
+      </c>
+      <c r="J38" t="s">
+        <v>222</v>
+      </c>
+      <c r="K38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>693</v>
+      </c>
+      <c r="F39" t="s">
+        <v>240</v>
+      </c>
+      <c r="H39" t="s">
+        <v>804</v>
+      </c>
+      <c r="I39" t="s">
+        <v>221</v>
+      </c>
+      <c r="J39" t="s">
+        <v>222</v>
+      </c>
+      <c r="K39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" t="s">
+        <v>629</v>
+      </c>
+      <c r="C40" t="s">
+        <v>629</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>693</v>
+      </c>
+      <c r="F40" t="s">
+        <v>630</v>
+      </c>
+      <c r="H40" t="s">
+        <v>804</v>
+      </c>
+      <c r="I40" t="s">
+        <v>221</v>
+      </c>
+      <c r="J40" t="s">
+        <v>222</v>
+      </c>
+      <c r="K40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" t="s">
+        <v>686</v>
+      </c>
+      <c r="C41" t="s">
+        <v>725</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>693</v>
+      </c>
+      <c r="F41" t="s">
+        <v>632</v>
+      </c>
+      <c r="H41" t="s">
+        <v>804</v>
+      </c>
+      <c r="I41" t="s">
+        <v>221</v>
+      </c>
+      <c r="J41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" t="s">
+        <v>241</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>693</v>
+      </c>
+      <c r="F42" t="s">
+        <v>242</v>
+      </c>
+      <c r="H42" t="s">
+        <v>804</v>
+      </c>
+      <c r="I42" t="s">
+        <v>221</v>
+      </c>
+      <c r="J42" t="s">
+        <v>222</v>
+      </c>
+      <c r="K42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" t="s">
+        <v>243</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>693</v>
+      </c>
+      <c r="F43" t="s">
+        <v>244</v>
+      </c>
+      <c r="H43" t="s">
+        <v>804</v>
+      </c>
+      <c r="I43" t="s">
+        <v>221</v>
+      </c>
+      <c r="J43" t="s">
+        <v>222</v>
+      </c>
+      <c r="K43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>693</v>
+      </c>
+      <c r="F44" t="s">
+        <v>246</v>
+      </c>
+      <c r="H44" t="s">
+        <v>804</v>
+      </c>
+      <c r="I44" t="s">
+        <v>221</v>
+      </c>
+      <c r="J44" t="s">
+        <v>222</v>
+      </c>
+      <c r="K44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" t="s">
+        <v>716</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>693</v>
+      </c>
+      <c r="F45" t="s">
+        <v>248</v>
+      </c>
+      <c r="H45" t="s">
+        <v>804</v>
+      </c>
+      <c r="I45" t="s">
+        <v>221</v>
+      </c>
+      <c r="J45" t="s">
+        <v>222</v>
+      </c>
+      <c r="K45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" t="s">
+        <v>223</v>
+      </c>
+      <c r="C46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>693</v>
+      </c>
+      <c r="F46" t="s">
+        <v>224</v>
+      </c>
+      <c r="H46" t="s">
+        <v>804</v>
+      </c>
+      <c r="I46" t="s">
+        <v>221</v>
+      </c>
+      <c r="J46" t="s">
+        <v>222</v>
+      </c>
+      <c r="K46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>693</v>
+      </c>
+      <c r="F47" t="s">
+        <v>226</v>
+      </c>
+      <c r="H47" t="s">
+        <v>804</v>
+      </c>
+      <c r="I47" t="s">
+        <v>221</v>
+      </c>
+      <c r="J47" t="s">
+        <v>222</v>
+      </c>
+      <c r="K47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>693</v>
+      </c>
+      <c r="F48" t="s">
+        <v>228</v>
+      </c>
+      <c r="H48" t="s">
+        <v>804</v>
+      </c>
+      <c r="I48" t="s">
+        <v>221</v>
+      </c>
+      <c r="J48" t="s">
+        <v>222</v>
+      </c>
+      <c r="K48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>693</v>
+      </c>
+      <c r="F49" t="s">
+        <v>230</v>
+      </c>
+      <c r="H49" t="s">
+        <v>804</v>
+      </c>
+      <c r="I49" t="s">
+        <v>221</v>
+      </c>
+      <c r="J49" t="s">
+        <v>222</v>
+      </c>
+      <c r="K49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" t="s">
+        <v>231</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>693</v>
+      </c>
+      <c r="F50" t="s">
+        <v>232</v>
+      </c>
+      <c r="H50" t="s">
+        <v>804</v>
+      </c>
+      <c r="I50" t="s">
+        <v>221</v>
+      </c>
+      <c r="J50" t="s">
+        <v>222</v>
+      </c>
+      <c r="K50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" t="s">
+        <v>233</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>693</v>
+      </c>
+      <c r="F51" t="s">
+        <v>234</v>
+      </c>
+      <c r="H51" t="s">
+        <v>804</v>
+      </c>
+      <c r="I51" t="s">
+        <v>221</v>
+      </c>
+      <c r="J51" t="s">
+        <v>222</v>
+      </c>
+      <c r="K51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>693</v>
+      </c>
+      <c r="F52" t="s">
+        <v>236</v>
+      </c>
+      <c r="H52" t="s">
+        <v>804</v>
+      </c>
+      <c r="I52" t="s">
+        <v>221</v>
+      </c>
+      <c r="J52" t="s">
+        <v>222</v>
+      </c>
+      <c r="K52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>693</v>
+      </c>
+      <c r="F53" t="s">
+        <v>238</v>
+      </c>
+      <c r="H53" t="s">
+        <v>804</v>
+      </c>
+      <c r="I53" t="s">
+        <v>221</v>
+      </c>
+      <c r="J53" t="s">
+        <v>222</v>
+      </c>
+      <c r="K53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" t="s">
+        <v>638</v>
+      </c>
+      <c r="C54" t="s">
+        <v>709</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>693</v>
+      </c>
+      <c r="F54" t="s">
+        <v>634</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="I54" t="s">
+        <v>252</v>
+      </c>
+      <c r="J54" t="s">
+        <v>805</v>
+      </c>
+      <c r="K54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" t="s">
+        <v>266</v>
+      </c>
+      <c r="C55" t="s">
+        <v>266</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>693</v>
+      </c>
+      <c r="F55" t="s">
+        <v>267</v>
+      </c>
+      <c r="H55" t="s">
+        <v>829</v>
+      </c>
+      <c r="I55" t="s">
+        <v>252</v>
+      </c>
+      <c r="J55" t="s">
+        <v>828</v>
+      </c>
+      <c r="K55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>693</v>
+      </c>
+      <c r="F56" t="s">
+        <v>270</v>
+      </c>
+      <c r="H56" t="s">
+        <v>798</v>
+      </c>
+      <c r="I56" t="s">
+        <v>271</v>
+      </c>
+      <c r="J56" t="s">
+        <v>272</v>
+      </c>
+      <c r="K56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" t="s">
+        <v>259</v>
+      </c>
+      <c r="C57" t="s">
+        <v>719</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>693</v>
+      </c>
+      <c r="F57" t="s">
+        <v>251</v>
+      </c>
+      <c r="I57" t="s">
+        <v>252</v>
+      </c>
+      <c r="J57" t="s">
+        <v>253</v>
+      </c>
+      <c r="K57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" t="s">
+        <v>260</v>
+      </c>
+      <c r="C58" t="s">
+        <v>260</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>693</v>
+      </c>
+      <c r="F58" t="s">
+        <v>261</v>
+      </c>
+      <c r="H58" t="s">
+        <v>806</v>
+      </c>
+      <c r="I58" t="s">
+        <v>252</v>
+      </c>
+      <c r="J58" t="s">
+        <v>262</v>
+      </c>
+      <c r="K58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>693</v>
+      </c>
+      <c r="F59" t="s">
+        <v>264</v>
+      </c>
+      <c r="H59" t="s">
+        <v>807</v>
+      </c>
+      <c r="I59" t="s">
+        <v>252</v>
+      </c>
+      <c r="J59" t="s">
+        <v>262</v>
+      </c>
+      <c r="K59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" t="s">
+        <v>274</v>
+      </c>
+      <c r="C60" t="s">
+        <v>274</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>693</v>
+      </c>
+      <c r="F60" t="s">
+        <v>275</v>
+      </c>
+      <c r="H60" t="s">
+        <v>798</v>
+      </c>
+      <c r="I60" t="s">
+        <v>276</v>
+      </c>
+      <c r="J60" t="s">
+        <v>277</v>
+      </c>
+      <c r="K60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" t="s">
+        <v>278</v>
+      </c>
+      <c r="C61" t="s">
+        <v>278</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>693</v>
+      </c>
+      <c r="F61" t="s">
+        <v>279</v>
+      </c>
+      <c r="H61" t="s">
+        <v>796</v>
+      </c>
+      <c r="I61" t="s">
+        <v>280</v>
+      </c>
+      <c r="J61" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" t="s">
+        <v>282</v>
+      </c>
+      <c r="C62" t="s">
+        <v>282</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>693</v>
+      </c>
+      <c r="F62" t="s">
+        <v>283</v>
+      </c>
+      <c r="H62" t="s">
+        <v>796</v>
+      </c>
+      <c r="I62" t="s">
+        <v>284</v>
+      </c>
+      <c r="J62" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" t="s">
+        <v>649</v>
+      </c>
+      <c r="C63" t="s">
+        <v>649</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>693</v>
+      </c>
+      <c r="F63" t="s">
+        <v>650</v>
+      </c>
+      <c r="I63" t="s">
+        <v>287</v>
+      </c>
+      <c r="J63" t="s">
+        <v>288</v>
+      </c>
+      <c r="K63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" t="s">
+        <v>651</v>
+      </c>
+      <c r="C64" t="s">
+        <v>651</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>693</v>
+      </c>
+      <c r="F64" t="s">
+        <v>652</v>
+      </c>
+      <c r="I64" t="s">
+        <v>287</v>
+      </c>
+      <c r="J64" t="s">
+        <v>288</v>
+      </c>
+      <c r="K64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" t="s">
+        <v>653</v>
+      </c>
+      <c r="C65" t="s">
+        <v>653</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>693</v>
+      </c>
+      <c r="F65" t="s">
+        <v>654</v>
+      </c>
+      <c r="I65" t="s">
+        <v>287</v>
+      </c>
+      <c r="J65" t="s">
+        <v>288</v>
+      </c>
+      <c r="K65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" t="s">
+        <v>655</v>
+      </c>
+      <c r="C66" t="s">
+        <v>655</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>693</v>
+      </c>
+      <c r="F66" t="s">
+        <v>656</v>
+      </c>
+      <c r="I66" t="s">
+        <v>287</v>
+      </c>
+      <c r="J66" t="s">
+        <v>288</v>
+      </c>
+      <c r="K66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" t="s">
+        <v>657</v>
+      </c>
+      <c r="C67" t="s">
+        <v>657</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>693</v>
+      </c>
+      <c r="F67" t="s">
+        <v>658</v>
+      </c>
+      <c r="I67" t="s">
+        <v>287</v>
+      </c>
+      <c r="J67" t="s">
+        <v>288</v>
+      </c>
+      <c r="K67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" t="s">
+        <v>661</v>
+      </c>
+      <c r="C68" t="s">
+        <v>661</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>693</v>
+      </c>
+      <c r="F68" t="s">
+        <v>662</v>
+      </c>
+      <c r="I68" t="s">
+        <v>287</v>
+      </c>
+      <c r="J68" t="s">
+        <v>288</v>
+      </c>
+      <c r="K68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" t="s">
+        <v>663</v>
+      </c>
+      <c r="C69" t="s">
+        <v>663</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>693</v>
+      </c>
+      <c r="F69" t="s">
+        <v>664</v>
+      </c>
+      <c r="I69" t="s">
+        <v>287</v>
+      </c>
+      <c r="J69" t="s">
+        <v>288</v>
+      </c>
+      <c r="K69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" t="s">
+        <v>410</v>
+      </c>
+      <c r="C70" t="s">
+        <v>410</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>693</v>
+      </c>
+      <c r="F70" t="s">
+        <v>411</v>
+      </c>
+      <c r="I70" t="s">
+        <v>287</v>
+      </c>
+      <c r="J70" t="s">
+        <v>288</v>
+      </c>
+      <c r="K70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71" t="s">
+        <v>418</v>
+      </c>
+      <c r="C71" t="s">
+        <v>418</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>693</v>
+      </c>
+      <c r="F71" t="s">
+        <v>419</v>
+      </c>
+      <c r="I71" t="s">
+        <v>287</v>
+      </c>
+      <c r="J71" t="s">
+        <v>288</v>
+      </c>
+      <c r="K71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72" t="s">
+        <v>435</v>
+      </c>
+      <c r="C72" t="s">
+        <v>714</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>693</v>
+      </c>
+      <c r="F72" t="s">
+        <v>436</v>
+      </c>
+      <c r="I72" t="s">
+        <v>287</v>
+      </c>
+      <c r="J72" t="s">
+        <v>288</v>
+      </c>
+      <c r="K72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73" t="s">
+        <v>467</v>
+      </c>
+      <c r="C73" t="s">
+        <v>467</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>693</v>
+      </c>
+      <c r="F73" t="s">
+        <v>468</v>
+      </c>
+      <c r="I73" t="s">
+        <v>287</v>
+      </c>
+      <c r="J73" t="s">
+        <v>288</v>
+      </c>
+      <c r="K73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" t="s">
+        <v>469</v>
+      </c>
+      <c r="C74" t="s">
+        <v>469</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>693</v>
+      </c>
+      <c r="F74" t="s">
+        <v>470</v>
+      </c>
+      <c r="I74" t="s">
+        <v>287</v>
+      </c>
+      <c r="J74" t="s">
+        <v>288</v>
+      </c>
+      <c r="K74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75" t="s">
+        <v>472</v>
+      </c>
+      <c r="C75" t="s">
+        <v>472</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>693</v>
+      </c>
+      <c r="F75" t="s">
+        <v>473</v>
+      </c>
+      <c r="I75" t="s">
+        <v>287</v>
+      </c>
+      <c r="J75" t="s">
+        <v>288</v>
+      </c>
+      <c r="K75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76" t="s">
+        <v>476</v>
+      </c>
+      <c r="C76" t="s">
+        <v>695</v>
+      </c>
+      <c r="D76">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>693</v>
+      </c>
+      <c r="F76" t="s">
+        <v>304</v>
+      </c>
+      <c r="I76" t="s">
+        <v>287</v>
+      </c>
+      <c r="J76" t="s">
+        <v>288</v>
+      </c>
+      <c r="K76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77" t="s">
+        <v>486</v>
+      </c>
+      <c r="C77" t="s">
+        <v>724</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>693</v>
+      </c>
+      <c r="F77" t="s">
+        <v>74</v>
+      </c>
+      <c r="I77" t="s">
+        <v>287</v>
+      </c>
+      <c r="J77" t="s">
+        <v>288</v>
+      </c>
+      <c r="K77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" t="s">
+        <v>309</v>
+      </c>
+      <c r="C78" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>693</v>
+      </c>
+      <c r="F78" t="s">
+        <v>310</v>
+      </c>
+      <c r="I78" t="s">
+        <v>287</v>
+      </c>
+      <c r="J78" t="s">
+        <v>288</v>
+      </c>
+      <c r="K78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" t="s">
+        <v>703</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>693</v>
+      </c>
+      <c r="F79" t="s">
+        <v>308</v>
+      </c>
+      <c r="I79" t="s">
+        <v>287</v>
+      </c>
+      <c r="J79" t="s">
+        <v>288</v>
+      </c>
+      <c r="K79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" t="s">
+        <v>312</v>
+      </c>
+      <c r="C80" t="s">
+        <v>312</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>693</v>
+      </c>
+      <c r="F80" t="s">
+        <v>313</v>
+      </c>
+      <c r="I80" t="s">
+        <v>287</v>
+      </c>
+      <c r="J80" t="s">
+        <v>288</v>
+      </c>
+      <c r="K80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" t="s">
+        <v>314</v>
+      </c>
+      <c r="C81" t="s">
+        <v>314</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>693</v>
+      </c>
+      <c r="F81" t="s">
+        <v>315</v>
+      </c>
+      <c r="I81" t="s">
+        <v>287</v>
+      </c>
+      <c r="J81" t="s">
+        <v>288</v>
+      </c>
+      <c r="K81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82" t="s">
+        <v>325</v>
+      </c>
+      <c r="C82" t="s">
+        <v>702</v>
+      </c>
+      <c r="D82">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>693</v>
+      </c>
+      <c r="F82" t="s">
+        <v>322</v>
+      </c>
+      <c r="I82" t="s">
+        <v>287</v>
+      </c>
+      <c r="J82" t="s">
+        <v>288</v>
+      </c>
+      <c r="K82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" t="s">
+        <v>340</v>
+      </c>
+      <c r="C83" t="s">
+        <v>699</v>
+      </c>
+      <c r="D83">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>693</v>
+      </c>
+      <c r="F83" t="s">
+        <v>302</v>
+      </c>
+      <c r="I83" t="s">
+        <v>287</v>
+      </c>
+      <c r="J83" t="s">
+        <v>288</v>
+      </c>
+      <c r="K83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84" t="s">
+        <v>391</v>
+      </c>
+      <c r="C84" t="s">
+        <v>713</v>
+      </c>
+      <c r="D84">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>693</v>
+      </c>
+      <c r="F84" t="s">
+        <v>390</v>
+      </c>
+      <c r="I84" t="s">
+        <v>287</v>
+      </c>
+      <c r="J84" t="s">
+        <v>288</v>
+      </c>
+      <c r="K84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" t="s">
+        <v>394</v>
+      </c>
+      <c r="C85" t="s">
+        <v>710</v>
+      </c>
+      <c r="D85">
+        <v>132</v>
+      </c>
+      <c r="E85" t="s">
+        <v>693</v>
+      </c>
+      <c r="F85" t="s">
+        <v>286</v>
+      </c>
+      <c r="I85" t="s">
+        <v>287</v>
+      </c>
+      <c r="J85" t="s">
+        <v>288</v>
+      </c>
+      <c r="K85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" t="s">
+        <v>665</v>
+      </c>
+      <c r="C86" t="s">
+        <v>696</v>
+      </c>
+      <c r="D86">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>693</v>
+      </c>
+      <c r="F86" t="s">
+        <v>409</v>
+      </c>
+      <c r="I86" t="s">
+        <v>666</v>
+      </c>
+      <c r="J86" t="s">
+        <v>667</v>
+      </c>
+      <c r="K86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" t="s">
+        <v>513</v>
+      </c>
+      <c r="C87" t="s">
+        <v>727</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>693</v>
+      </c>
+      <c r="F87" t="s">
+        <v>510</v>
+      </c>
+      <c r="H87" t="s">
+        <v>798</v>
+      </c>
+      <c r="I87" t="s">
+        <v>511</v>
+      </c>
+      <c r="J87" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" t="s">
+        <v>514</v>
+      </c>
+      <c r="C88" t="s">
+        <v>514</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>693</v>
+      </c>
+      <c r="F88" t="s">
+        <v>515</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="I88" t="s">
+        <v>516</v>
+      </c>
+      <c r="J88" t="s">
+        <v>288</v>
+      </c>
+      <c r="K88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" t="s">
+        <v>517</v>
+      </c>
+      <c r="C89" t="s">
+        <v>517</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>693</v>
+      </c>
+      <c r="F89" t="s">
+        <v>518</v>
+      </c>
+      <c r="H89" t="s">
+        <v>796</v>
+      </c>
+      <c r="I89" t="s">
+        <v>519</v>
+      </c>
+      <c r="J89" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" t="s">
+        <v>550</v>
+      </c>
+      <c r="C90" t="s">
+        <v>550</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>693</v>
+      </c>
+      <c r="F90" t="s">
+        <v>748</v>
+      </c>
+      <c r="G90" t="s">
+        <v>810</v>
+      </c>
+      <c r="H90" t="s">
+        <v>749</v>
+      </c>
+      <c r="I90" t="s">
+        <v>552</v>
+      </c>
+      <c r="J90" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" t="s">
+        <v>674</v>
+      </c>
+      <c r="C91" t="s">
+        <v>722</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>693</v>
+      </c>
+      <c r="F91" t="s">
+        <v>670</v>
+      </c>
+      <c r="H91" t="s">
+        <v>811</v>
+      </c>
+      <c r="I91" t="s">
+        <v>671</v>
+      </c>
+      <c r="J91" t="s">
+        <v>672</v>
+      </c>
+      <c r="K91" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92" t="s">
+        <v>675</v>
+      </c>
+      <c r="C92" t="s">
+        <v>675</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>693</v>
+      </c>
+      <c r="F92" t="s">
+        <v>676</v>
+      </c>
+      <c r="H92" t="s">
+        <v>812</v>
+      </c>
+      <c r="I92" t="s">
+        <v>677</v>
+      </c>
+      <c r="J92" t="s">
+        <v>678</v>
+      </c>
+      <c r="K92" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" t="s">
+        <v>687</v>
+      </c>
+      <c r="C93" t="s">
+        <v>687</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>693</v>
+      </c>
+      <c r="F93" t="s">
+        <v>790</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="I93" t="s">
+        <v>689</v>
+      </c>
+      <c r="J93" t="s">
+        <v>690</v>
+      </c>
+      <c r="K93" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" t="s">
+        <v>554</v>
+      </c>
+      <c r="C94" t="s">
+        <v>554</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>693</v>
+      </c>
+      <c r="F94" t="s">
+        <v>750</v>
+      </c>
+      <c r="G94" t="s">
+        <v>814</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="I94" t="s">
+        <v>556</v>
+      </c>
+      <c r="J94" t="s">
+        <v>557</v>
+      </c>
+      <c r="K94" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" t="s">
+        <v>559</v>
+      </c>
+      <c r="C95" t="s">
+        <v>559</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>693</v>
+      </c>
+      <c r="F95" t="s">
+        <v>816</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="I95" t="s">
+        <v>561</v>
+      </c>
+      <c r="J95" t="s">
+        <v>557</v>
+      </c>
+      <c r="K95" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" t="s">
+        <v>563</v>
+      </c>
+      <c r="C96" t="s">
+        <v>563</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>693</v>
+      </c>
+      <c r="F96" t="s">
+        <v>758</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="I96" t="s">
+        <v>565</v>
+      </c>
+      <c r="J96" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" t="s">
+        <v>567</v>
+      </c>
+      <c r="C97" t="s">
+        <v>567</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>693</v>
+      </c>
+      <c r="F97" t="s">
+        <v>757</v>
+      </c>
+      <c r="G97" t="s">
+        <v>568</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="I97" t="s">
+        <v>569</v>
+      </c>
+      <c r="J97" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" t="s">
+        <v>575</v>
+      </c>
+      <c r="C98" t="s">
+        <v>729</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>693</v>
+      </c>
+      <c r="F98" t="s">
+        <v>571</v>
+      </c>
+      <c r="G98" t="s">
+        <v>819</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="I98" t="s">
+        <v>572</v>
+      </c>
+      <c r="J98" t="s">
+        <v>573</v>
+      </c>
+      <c r="K98" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" t="s">
+        <v>521</v>
+      </c>
+      <c r="C99" t="s">
+        <v>521</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>693</v>
+      </c>
+      <c r="F99" t="s">
+        <v>752</v>
+      </c>
+      <c r="G99" t="s">
+        <v>753</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="I99" t="s">
+        <v>523</v>
+      </c>
+      <c r="J99" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" t="s">
+        <v>525</v>
+      </c>
+      <c r="C100" t="s">
+        <v>525</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>693</v>
+      </c>
+      <c r="F100" t="s">
+        <v>526</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="I100" t="s">
+        <v>527</v>
+      </c>
+      <c r="J100" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" t="s">
+        <v>529</v>
+      </c>
+      <c r="C101" t="s">
+        <v>529</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>693</v>
+      </c>
+      <c r="F101" t="s">
+        <v>530</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="I101" t="s">
+        <v>531</v>
+      </c>
+      <c r="J101" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" t="s">
+        <v>533</v>
+      </c>
+      <c r="C102" t="s">
+        <v>533</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>693</v>
+      </c>
+      <c r="F102" t="s">
+        <v>821</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="I102" t="s">
+        <v>535</v>
+      </c>
+      <c r="J102" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" t="s">
+        <v>541</v>
+      </c>
+      <c r="C103" t="s">
+        <v>541</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>693</v>
+      </c>
+      <c r="F103" t="s">
+        <v>542</v>
+      </c>
+      <c r="H103" t="s">
+        <v>822</v>
+      </c>
+      <c r="I103" t="s">
+        <v>543</v>
+      </c>
+      <c r="J103" t="s">
+        <v>544</v>
+      </c>
+      <c r="K103" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" t="s">
+        <v>546</v>
+      </c>
+      <c r="C104" t="s">
+        <v>730</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>693</v>
+      </c>
+      <c r="F104" t="s">
+        <v>823</v>
+      </c>
+      <c r="G104" t="s">
+        <v>756</v>
+      </c>
+      <c r="H104" t="s">
+        <v>823</v>
+      </c>
+      <c r="I104" t="s">
+        <v>539</v>
+      </c>
+      <c r="J104" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" t="s">
+        <v>547</v>
+      </c>
+      <c r="C105" t="s">
+        <v>547</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>693</v>
+      </c>
+      <c r="F105" t="s">
+        <v>548</v>
+      </c>
+      <c r="H105" t="s">
+        <v>804</v>
+      </c>
+      <c r="I105" t="s">
+        <v>549</v>
+      </c>
+      <c r="J105" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" t="s">
+        <v>576</v>
+      </c>
+      <c r="C106" t="s">
+        <v>576</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>693</v>
+      </c>
+      <c r="F106" t="s">
+        <v>577</v>
+      </c>
+      <c r="H106" t="s">
+        <v>824</v>
+      </c>
+      <c r="I106" t="s">
+        <v>578</v>
+      </c>
+      <c r="J106" t="s">
+        <v>579</v>
+      </c>
+      <c r="K106" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" t="s">
+        <v>581</v>
+      </c>
+      <c r="C107" t="s">
+        <v>581</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>693</v>
+      </c>
+      <c r="F107" t="s">
+        <v>582</v>
+      </c>
+      <c r="H107" t="s">
+        <v>825</v>
+      </c>
+      <c r="I107" t="s">
+        <v>583</v>
+      </c>
+      <c r="J107" t="s">
+        <v>584</v>
+      </c>
+      <c r="K107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:K107" xr:uid="{BA191355-432A-4366-AB37-7E871A09DE2C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K107">
+      <sortCondition ref="B2:B107"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/hw/rev2/FlightComputer-rev2-BOM.xlsx
+++ b/hw/rev2/FlightComputer-rev2-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\hw\rev2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93E9A1D-9821-4138-B848-B89987F87A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E143EE38-87B9-4B8C-99E6-579B1D4BB6EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="330" windowWidth="24525" windowHeight="13980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FlightComputer-rev2-BOM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3925" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="835">
   <si>
     <t>Qty</t>
   </si>
@@ -2527,10 +2527,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>패키지 확인</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>TPS61235PRWLR</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2612,6 +2608,26 @@
   </si>
   <si>
     <t>963-NR3012T220M / IFSC1111AZER220M01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRCW040247K5FKEDC(1%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRCW040252K3FKED(1%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRCW04021M00FKEDC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCU15XH103F6SRC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K 0402</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2780,7 +2796,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2975,6 +2991,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3223,7 +3245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3240,6 +3262,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3599,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L482"/>
   <sheetViews>
-    <sheetView topLeftCell="A350" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A452" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I387" sqref="I387"/>
     </sheetView>
   </sheetViews>
@@ -17853,7 +17878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02910B57-B950-4405-8C8E-32E5FA21D0BD}">
   <dimension ref="B2:L105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -20670,8 +20695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0783FAD6-535F-44E4-813B-447FCB230AB9}">
   <dimension ref="B2:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20853,7 +20878,7 @@
       <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
         <v>774</v>
       </c>
       <c r="H7" t="s">
@@ -20885,7 +20910,7 @@
       <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="6" t="s">
         <v>774</v>
       </c>
       <c r="H8" t="s">
@@ -20917,7 +20942,7 @@
       <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="6" t="s">
         <v>733</v>
       </c>
       <c r="H9" t="s">
@@ -20949,7 +20974,7 @@
       <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="6" t="s">
         <v>793</v>
       </c>
       <c r="H10" t="s">
@@ -21196,6 +21221,7 @@
       <c r="F18" t="s">
         <v>20</v>
       </c>
+      <c r="G18" s="6"/>
       <c r="H18" t="s">
         <v>796</v>
       </c>
@@ -21431,6 +21457,7 @@
       <c r="F26" t="s">
         <v>154</v>
       </c>
+      <c r="G26" s="6"/>
       <c r="H26" t="s">
         <v>800</v>
       </c>
@@ -21460,7 +21487,7 @@
       <c r="F27" t="s">
         <v>760</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="6" t="s">
         <v>761</v>
       </c>
       <c r="H27" t="s">
@@ -22220,7 +22247,7 @@
         <v>634</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I54" t="s">
         <v>252</v>
@@ -22249,13 +22276,13 @@
         <v>267</v>
       </c>
       <c r="H55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I55" t="s">
         <v>252</v>
       </c>
       <c r="J55" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K55" t="s">
         <v>10</v>
@@ -22332,6 +22359,7 @@
       <c r="F58" t="s">
         <v>261</v>
       </c>
+      <c r="G58" s="6"/>
       <c r="H58" t="s">
         <v>806</v>
       </c>
@@ -22361,6 +22389,7 @@
       <c r="F59" t="s">
         <v>264</v>
       </c>
+      <c r="G59" s="6"/>
       <c r="H59" t="s">
         <v>807</v>
       </c>
@@ -22861,6 +22890,10 @@
       <c r="F78" t="s">
         <v>310</v>
       </c>
+      <c r="G78" s="6"/>
+      <c r="H78" t="s">
+        <v>830</v>
+      </c>
       <c r="I78" t="s">
         <v>287</v>
       </c>
@@ -22887,6 +22920,10 @@
       <c r="F79" t="s">
         <v>308</v>
       </c>
+      <c r="G79" s="6"/>
+      <c r="H79" t="s">
+        <v>832</v>
+      </c>
       <c r="I79" t="s">
         <v>287</v>
       </c>
@@ -22913,6 +22950,10 @@
       <c r="F80" t="s">
         <v>313</v>
       </c>
+      <c r="G80" s="6"/>
+      <c r="H80" t="s">
+        <v>831</v>
+      </c>
       <c r="I80" t="s">
         <v>287</v>
       </c>
@@ -23121,8 +23162,11 @@
       <c r="F88" t="s">
         <v>515</v>
       </c>
+      <c r="G88" s="6" t="s">
+        <v>834</v>
+      </c>
       <c r="H88" s="2" t="s">
-        <v>809</v>
+        <v>833</v>
       </c>
       <c r="I88" t="s">
         <v>516</v>
@@ -23177,7 +23221,7 @@
         <v>748</v>
       </c>
       <c r="G90" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H90" t="s">
         <v>749</v>
@@ -23206,7 +23250,7 @@
         <v>670</v>
       </c>
       <c r="H91" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I91" t="s">
         <v>671</v>
@@ -23235,7 +23279,7 @@
         <v>676</v>
       </c>
       <c r="H92" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I92" t="s">
         <v>677</v>
@@ -23264,7 +23308,7 @@
         <v>790</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I93" t="s">
         <v>689</v>
@@ -23293,10 +23337,10 @@
         <v>750</v>
       </c>
       <c r="G94" t="s">
+        <v>813</v>
+      </c>
+      <c r="H94" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="I94" t="s">
         <v>556</v>
@@ -23322,10 +23366,10 @@
         <v>693</v>
       </c>
       <c r="F95" t="s">
+        <v>815</v>
+      </c>
+      <c r="H95" s="3" t="s">
         <v>816</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>817</v>
       </c>
       <c r="I95" t="s">
         <v>561</v>
@@ -23357,7 +23401,7 @@
         <v>759</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I96" t="s">
         <v>565</v>
@@ -23386,7 +23430,7 @@
         <v>568</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I97" t="s">
         <v>569</v>
@@ -23412,10 +23456,10 @@
         <v>571</v>
       </c>
       <c r="G98" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I98" t="s">
         <v>572</v>
@@ -23443,11 +23487,11 @@
       <c r="F99" t="s">
         <v>752</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="6" t="s">
         <v>753</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I99" t="s">
         <v>523</v>
@@ -23473,7 +23517,7 @@
         <v>526</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I100" t="s">
         <v>527</v>
@@ -23499,7 +23543,7 @@
         <v>530</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I101" t="s">
         <v>531</v>
@@ -23522,10 +23566,10 @@
         <v>693</v>
       </c>
       <c r="F102" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I102" t="s">
         <v>535</v>
@@ -23551,7 +23595,7 @@
         <v>542</v>
       </c>
       <c r="H103" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I103" t="s">
         <v>543</v>
@@ -23577,13 +23621,13 @@
         <v>693</v>
       </c>
       <c r="F104" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G104" t="s">
         <v>756</v>
       </c>
       <c r="H104" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I104" t="s">
         <v>539</v>
@@ -23635,7 +23679,7 @@
         <v>577</v>
       </c>
       <c r="H106" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I106" t="s">
         <v>578</v>
@@ -23664,7 +23708,7 @@
         <v>582</v>
       </c>
       <c r="H107" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I107" t="s">
         <v>583</v>
